--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Speed</t>
   </si>
@@ -26,18 +26,50 @@
   <si>
     <t>I</t>
   </si>
+  <si>
+    <t>two 5 ohm, one 0.1</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>1Ω</t>
+  </si>
+  <si>
+    <t>2.5Ω</t>
+  </si>
+  <si>
+    <t>0.5Ω</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,14 +92,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -146,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -180,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,303 +395,936 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>140</v>
-      </c>
-      <c r="B3">
-        <v>0.246</v>
-      </c>
       <c r="C3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
-        <v>0.38700000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.311</v>
+      </c>
+      <c r="E4">
+        <v>0.09</v>
+      </c>
+      <c r="F4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.22</v>
+      </c>
+      <c r="I4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>140</v>
+      </c>
+      <c r="Q4">
+        <v>0.246</v>
+      </c>
+      <c r="R4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
       <c r="B5">
-        <v>0.80100000000000005</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C5">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.52</v>
+      </c>
+      <c r="E5">
+        <v>0.18</v>
+      </c>
+      <c r="F5">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.501</v>
+      </c>
+      <c r="K5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="P5">
+        <v>200</v>
+      </c>
+      <c r="Q5">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="R5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
       <c r="B6">
-        <v>1.2</v>
+        <v>0.114</v>
       </c>
       <c r="C6">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.752</v>
+      </c>
+      <c r="E6">
+        <v>0.252</v>
+      </c>
+      <c r="F6">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="K6">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="P6">
+        <v>400</v>
+      </c>
+      <c r="Q6">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="R6">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>800</v>
       </c>
       <c r="B7">
-        <v>1.67</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="C7">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K7">
+        <v>1.579</v>
+      </c>
+      <c r="L7">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="P7">
+        <v>600</v>
+      </c>
+      <c r="Q7">
+        <v>1.2</v>
+      </c>
+      <c r="R7">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
       <c r="B8">
-        <v>2.06</v>
+        <v>0.17</v>
       </c>
       <c r="C8">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.256</v>
+      </c>
+      <c r="E8">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.22</v>
+      </c>
+      <c r="H8">
+        <v>1.06</v>
+      </c>
+      <c r="I8">
+        <v>1.2</v>
+      </c>
+      <c r="K8">
+        <v>1.97</v>
+      </c>
+      <c r="L8">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="P8">
+        <v>800</v>
+      </c>
+      <c r="Q8">
+        <v>1.67</v>
+      </c>
+      <c r="R8">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1200</v>
       </c>
       <c r="B9">
-        <v>2.5049999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="C9">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.486</v>
+      </c>
+      <c r="E9">
+        <v>0.439</v>
+      </c>
+      <c r="F9">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="K9">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="L9">
+        <v>1.333</v>
+      </c>
+      <c r="P9">
+        <v>1000</v>
+      </c>
+      <c r="Q9">
+        <v>2.06</v>
+      </c>
+      <c r="R9">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1400</v>
       </c>
       <c r="B10">
-        <v>2.95</v>
+        <v>0.214</v>
       </c>
       <c r="C10">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.726</v>
+      </c>
+      <c r="E10">
+        <v>0.496</v>
+      </c>
+      <c r="F10">
+        <v>1.708</v>
+      </c>
+      <c r="H10">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.66</v>
+      </c>
+      <c r="K10">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="L10">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="P10">
+        <v>1200</v>
+      </c>
+      <c r="Q10">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1600</v>
       </c>
       <c r="B11">
-        <v>3.38</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C11">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1.97</v>
+      </c>
+      <c r="E11">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F11">
+        <v>1.925</v>
+      </c>
+      <c r="H11">
+        <v>1.599</v>
+      </c>
+      <c r="I11">
+        <v>1.903</v>
+      </c>
+      <c r="K11">
+        <v>3.06</v>
+      </c>
+      <c r="L11">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="P11">
+        <v>1400</v>
+      </c>
+      <c r="Q11">
+        <v>2.95</v>
+      </c>
+      <c r="R11">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1800</v>
       </c>
       <c r="B12">
-        <v>3.78</v>
+        <v>0.255</v>
       </c>
       <c r="C12">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F12">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="H12">
+        <v>1.762</v>
+      </c>
+      <c r="I12">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="K12">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="L12">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="P12">
+        <v>1600</v>
+      </c>
+      <c r="Q12">
+        <v>3.38</v>
+      </c>
+      <c r="R12">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2000</v>
       </c>
       <c r="B13">
-        <v>4.26</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.4</v>
+      </c>
+      <c r="H13">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="I13">
+        <v>2.375</v>
+      </c>
+      <c r="K13">
+        <v>3.7589999999999999</v>
+      </c>
+      <c r="L13">
+        <v>2.226</v>
+      </c>
+      <c r="P13">
+        <v>1800</v>
+      </c>
+      <c r="Q13">
+        <v>3.78</v>
+      </c>
+      <c r="R13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2200</v>
       </c>
       <c r="B14">
-        <v>4.6900000000000004</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C14">
-        <v>0.47699999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2.698</v>
+      </c>
+      <c r="E14">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F14">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="H14">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="I14">
+        <v>2.609</v>
+      </c>
+      <c r="K14">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="L14">
+        <v>2.448</v>
+      </c>
+      <c r="P14">
+        <v>2000</v>
+      </c>
+      <c r="Q14">
+        <v>4.26</v>
+      </c>
+      <c r="R14">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2400</v>
       </c>
       <c r="B15">
-        <v>5.1100000000000003</v>
+        <v>0.308</v>
       </c>
       <c r="C15">
-        <v>0.501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F15">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="I15">
+        <v>2.85</v>
+      </c>
+      <c r="K15">
+        <v>4.46</v>
+      </c>
+      <c r="L15">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="P15">
+        <v>2200</v>
+      </c>
+      <c r="Q15">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="R15">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2600</v>
       </c>
       <c r="B16">
-        <v>5.57</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="C16">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.748</v>
+      </c>
+      <c r="F16">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="I16">
+        <v>3.1</v>
+      </c>
+      <c r="K16">
+        <v>4.78</v>
+      </c>
+      <c r="L16">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="P16">
+        <v>2400</v>
+      </c>
+      <c r="Q16">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="R16">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2800</v>
       </c>
       <c r="B17">
-        <v>5.98</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C17">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.78</v>
+      </c>
+      <c r="F17">
+        <v>3.306</v>
+      </c>
+      <c r="H17">
+        <v>2.496</v>
+      </c>
+      <c r="I17">
+        <v>3.339</v>
+      </c>
+      <c r="K17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L17">
+        <v>3.14</v>
+      </c>
+      <c r="P17">
+        <v>2600</v>
+      </c>
+      <c r="Q17">
+        <v>5.57</v>
+      </c>
+      <c r="R17">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3000</v>
       </c>
       <c r="B18">
-        <v>6.42</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C18">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F18">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="I18">
+        <v>3.56</v>
+      </c>
+      <c r="K18">
+        <v>5.41</v>
+      </c>
+      <c r="L18">
+        <v>3.36</v>
+      </c>
+      <c r="P18">
+        <v>2800</v>
+      </c>
+      <c r="Q18">
+        <v>5.98</v>
+      </c>
+      <c r="R18">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3200</v>
       </c>
       <c r="B19">
-        <v>6.86</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="C19">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F19">
+        <v>3.7469999999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.75</v>
+      </c>
+      <c r="I19">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="K19">
+        <v>5.72</v>
+      </c>
+      <c r="L19">
+        <v>3.58</v>
+      </c>
+      <c r="P19">
+        <v>3000</v>
+      </c>
+      <c r="Q19">
+        <v>6.42</v>
+      </c>
+      <c r="R19">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3400</v>
       </c>
       <c r="B20">
-        <v>7.28</v>
+        <v>0.376</v>
       </c>
       <c r="C20">
-        <v>0.59899999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F20">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="H20">
+        <v>2.86</v>
+      </c>
+      <c r="I20">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>3.8079999999999998</v>
+      </c>
+      <c r="P20">
+        <v>3200</v>
+      </c>
+      <c r="Q20">
+        <v>6.86</v>
+      </c>
+      <c r="R20">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3600</v>
       </c>
       <c r="B21">
-        <v>7.72</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="C21">
-        <v>0.61599999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>4.3339999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.89</v>
+      </c>
+      <c r="F21">
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="H21">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="I21">
+        <v>4.3070000000000004</v>
+      </c>
+      <c r="K21">
+        <v>6.28</v>
+      </c>
+      <c r="L21">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="P21">
+        <v>3400</v>
+      </c>
+      <c r="Q21">
+        <v>7.28</v>
+      </c>
+      <c r="R21">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3800</v>
       </c>
       <c r="B22">
-        <v>8.15</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="C22">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>4.54</v>
+      </c>
+      <c r="E22">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F22">
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="H22">
+        <v>3.093</v>
+      </c>
+      <c r="I22">
+        <v>4.5419999999999998</v>
+      </c>
+      <c r="K22">
+        <v>6.56</v>
+      </c>
+      <c r="L22">
+        <v>4.24</v>
+      </c>
+      <c r="P22">
+        <v>3600</v>
+      </c>
+      <c r="Q22">
+        <v>7.72</v>
+      </c>
+      <c r="R22">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4000</v>
       </c>
       <c r="B23">
-        <v>8.58</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="C23">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F23">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="H23">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="I23">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="K23">
+        <v>6.84</v>
+      </c>
+      <c r="L23">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="P23">
+        <v>3800</v>
+      </c>
+      <c r="Q23">
+        <v>8.15</v>
+      </c>
+      <c r="R23">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4200</v>
       </c>
       <c r="B24">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C24">
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F24">
+        <v>4.875</v>
+      </c>
+      <c r="H24">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="I24">
+        <v>4.99</v>
+      </c>
+      <c r="P24">
+        <v>4000</v>
+      </c>
+      <c r="Q24">
+        <v>8.58</v>
+      </c>
+      <c r="R24">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4200</v>
+      </c>
+      <c r="Q25">
         <v>9.02</v>
       </c>
-      <c r="C24">
+      <c r="R25">
         <v>0.65800000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -107,6 +107,640 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4379999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1890000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7629999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7640000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="30502912"/>
+        <c:axId val="30501120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="30502912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30501120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30501120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30502912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,27 +1892,6 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4200</v>
-      </c>
-      <c r="B24">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="C24">
-        <v>4.9980000000000002</v>
-      </c>
-      <c r="E24">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="F24">
-        <v>4.875</v>
-      </c>
-      <c r="H24">
-        <v>3.2890000000000001</v>
-      </c>
-      <c r="I24">
-        <v>4.99</v>
-      </c>
       <c r="P24">
         <v>4000</v>
       </c>
@@ -1303,6 +1916,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Speed</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>0.5Ω</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -134,11 +137,171 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.5Ω</c:v>
+                  <c:v>5Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7640000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1739999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10584000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19494000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30245999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55873500000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83543999999999985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97537499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1343750000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2789599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.42296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5649350000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.703535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8480149999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9765350000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1206399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2465350000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3641350000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4969599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1Ω</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -153,64 +316,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1859999999999999</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.579</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.97</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3530000000000002</c:v>
+                  <c:v>1.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7080000000000002</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.06</c:v>
+                  <c:v>1.903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4180000000000001</c:v>
+                  <c:v>2.1389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7589999999999999</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0919999999999996</c:v>
+                  <c:v>2.609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.46</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.78</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>3.339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.41</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.72</c:v>
+                  <c:v>3.8170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>4.0439999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.28</c:v>
+                  <c:v>4.3070000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.56</c:v>
+                  <c:v>4.5419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.84</c:v>
+                  <c:v>4.7629999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,224 +388,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42299999999999999</c:v>
+                  <c:v>0.59140800000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>1.326675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86899999999999999</c:v>
+                  <c:v>2.2291319999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0980000000000001</c:v>
+                  <c:v>3.3708000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.333</c:v>
+                  <c:v>4.680003000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5509999999999999</c:v>
+                  <c:v>6.0662520000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7709999999999999</c:v>
+                  <c:v>7.6704030000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0019999999999998</c:v>
+                  <c:v>9.3139319999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.226</c:v>
+                  <c:v>11.082251999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.448</c:v>
+                  <c:v>12.916875000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6880000000000002</c:v>
+                  <c:v>14.718674999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9119999999999999</c:v>
+                  <c:v>16.779675000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.14</c:v>
+                  <c:v>18.690048000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.36</c:v>
+                  <c:v>20.577483000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.58</c:v>
+                  <c:v>22.6875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>24.538799999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0179999999999998</c:v>
+                  <c:v>26.748588000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.24</c:v>
+                  <c:v>28.699947000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4379999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1Ω</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$3:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.496</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6190000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9860000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.093</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1890000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1389999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.609</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.339</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.8170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0439999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3070000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.7629999999999999</c:v>
+                  <c:v>30.509163000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,155 +457,155 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5Ω</c:v>
+                  <c:v>0.5Ω</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$24</c:f>
+              <c:f>Sheet1!$O$3:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.114</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.86899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17</c:v>
+                  <c:v>1.0980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.193</c:v>
+                  <c:v>1.333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.214</c:v>
+                  <c:v>1.5509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23599999999999999</c:v>
+                  <c:v>1.7709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.255</c:v>
+                  <c:v>2.0019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>2.226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.308</c:v>
+                  <c:v>2.6880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>2.9119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33700000000000002</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35099999999999998</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.376</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38700000000000001</c:v>
+                  <c:v>4.0179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39700000000000002</c:v>
+                  <c:v>4.24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40799999999999997</c:v>
+                  <c:v>4.4379999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$24</c:f>
+              <c:f>Sheet1!$P$3:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.311</c:v>
+                  <c:v>0.2269815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>0.94803750000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.752</c:v>
+                  <c:v>2.1098939999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>3.7398614999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.256</c:v>
+                  <c:v>5.8213499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.486</c:v>
+                  <c:v>8.3049135000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.726</c:v>
+                  <c:v>10.999896000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.97</c:v>
+                  <c:v>14.045400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2090000000000001</c:v>
+                  <c:v>17.524086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4620000000000002</c:v>
+                  <c:v>21.195121499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.698</c:v>
+                  <c:v>25.116695999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9289999999999998</c:v>
+                  <c:v>29.837400000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1669999999999998</c:v>
+                  <c:v>34.272600000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4079999999999999</c:v>
+                  <c:v>39.015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6360000000000001</c:v>
+                  <c:v>43.902149999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8559999999999999</c:v>
+                  <c:v>49.07759999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3339999999999996</c:v>
+                  <c:v>59.157600000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.54</c:v>
+                  <c:v>64.550399999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7640000000000002</c:v>
+                  <c:v>70.178399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,11 +620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30502912"/>
-        <c:axId val="30501120"/>
+        <c:axId val="114898048"/>
+        <c:axId val="40893824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30502912"/>
+        <c:axId val="114898048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,6 +634,647 @@
           <c:tx>
             <c:rich>
               <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40893824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40893824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power (W) [=I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R*3]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114898048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7640000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7629999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1890000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5Ω</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4379999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42438016"/>
+        <c:axId val="42435328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42438016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42435328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42435328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -650,43 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30501120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="30501120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Voltage(V)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30502912"/>
+        <c:crossAx val="42438016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -712,20 +1320,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -735,6 +1343,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1030,32 +1668,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1065,35 +1703,47 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>1</v>
       </c>
       <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1103,35 +1753,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="D3">
+        <f>B3^2*5*3</f>
         <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
+        <f>F3^2*2.5*3</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
+        <f>J3^2*1*3</f>
         <v>0</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
+        <f>N3^2*0.5*3</f>
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -1141,35 +1807,51 @@
       <c r="C4">
         <v>0.311</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <f t="shared" ref="D4:D23" si="0">B4^2*5*3</f>
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="F4">
         <v>0.09</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.29199999999999998</v>
       </c>
       <c r="H4">
+        <f t="shared" ref="H4:H23" si="1">F4^2*2.5*3</f>
+        <v>6.0749999999999992E-2</v>
+      </c>
+      <c r="J4">
         <v>0.22</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.29299999999999998</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <f t="shared" ref="L4:L23" si="2">J4^2*1*3</f>
+        <v>0.1452</v>
+      </c>
+      <c r="N4">
         <v>0.38900000000000001</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>0.2</v>
       </c>
       <c r="P4">
+        <f t="shared" ref="P4:P23" si="3">N4^2*0.5*3</f>
+        <v>0.2269815</v>
+      </c>
+      <c r="S4">
         <v>140</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>0.246</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -1179,35 +1861,51 @@
       <c r="C5">
         <v>0.52</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.10584000000000002</v>
+      </c>
+      <c r="F5">
         <v>0.18</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.51600000000000001</v>
       </c>
       <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.24299999999999997</v>
+      </c>
+      <c r="J5">
         <v>0.44400000000000001</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.501</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.59140800000000004</v>
+      </c>
+      <c r="N5">
         <v>0.79500000000000004</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>0.42299999999999999</v>
       </c>
       <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0.94803750000000009</v>
+      </c>
+      <c r="S5">
         <v>200</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>0.38700000000000001</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
@@ -1217,35 +1915,51 @@
       <c r="C6">
         <v>0.752</v>
       </c>
-      <c r="E6">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.19494000000000003</v>
+      </c>
+      <c r="F6">
         <v>0.252</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.72799999999999998</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.47628000000000004</v>
+      </c>
+      <c r="J6">
         <v>0.66500000000000004</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.326675</v>
+      </c>
+      <c r="N6">
         <v>1.1859999999999999</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>0.64500000000000002</v>
       </c>
       <c r="P6">
+        <f t="shared" si="3"/>
+        <v>2.1098939999999997</v>
+      </c>
+      <c r="S6">
         <v>400</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>0.80100000000000005</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>800</v>
       </c>
@@ -1255,35 +1969,51 @@
       <c r="C7">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E7">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.30245999999999995</v>
+      </c>
+      <c r="F7">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.98799999999999999</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.77763000000000015</v>
+      </c>
+      <c r="J7">
         <v>0.86199999999999999</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.96299999999999997</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>2.2291319999999999</v>
+      </c>
+      <c r="N7">
         <v>1.579</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>0.86899999999999999</v>
       </c>
       <c r="P7">
+        <f t="shared" si="3"/>
+        <v>3.7398614999999999</v>
+      </c>
+      <c r="S7">
         <v>600</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>1.2</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>0.188</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1293,35 +2023,51 @@
       <c r="C8">
         <v>1.256</v>
       </c>
-      <c r="E8">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.43350000000000005</v>
+      </c>
+      <c r="F8">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.22</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.09443</v>
+      </c>
+      <c r="J8">
         <v>1.06</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1.2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>3.3708000000000005</v>
+      </c>
+      <c r="N8">
         <v>1.97</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>1.0980000000000001</v>
       </c>
       <c r="P8">
+        <f t="shared" si="3"/>
+        <v>5.8213499999999998</v>
+      </c>
+      <c r="S8">
         <v>800</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>1.67</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1200</v>
       </c>
@@ -1331,35 +2077,51 @@
       <c r="C9">
         <v>1.486</v>
       </c>
-      <c r="E9">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.55873500000000009</v>
+      </c>
+      <c r="F9">
         <v>0.439</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.4570000000000001</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.4454075</v>
+      </c>
+      <c r="J9">
         <v>1.2490000000000001</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.4390000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>4.680003000000001</v>
+      </c>
+      <c r="N9">
         <v>2.3530000000000002</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>1.333</v>
       </c>
       <c r="P9">
+        <f t="shared" si="3"/>
+        <v>8.3049135000000014</v>
+      </c>
+      <c r="S9">
         <v>1000</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>2.06</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1400</v>
       </c>
@@ -1369,35 +2131,51 @@
       <c r="C10">
         <v>1.726</v>
       </c>
-      <c r="E10">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.68694</v>
+      </c>
+      <c r="F10">
         <v>0.496</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.708</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.8451199999999996</v>
+      </c>
+      <c r="J10">
         <v>1.4219999999999999</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.66</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>6.0662520000000004</v>
+      </c>
+      <c r="N10">
         <v>2.7080000000000002</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>1.5509999999999999</v>
       </c>
       <c r="P10">
+        <f t="shared" si="3"/>
+        <v>10.999896000000001</v>
+      </c>
+      <c r="S10">
         <v>1200</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>2.5049999999999999</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -1407,35 +2185,51 @@
       <c r="C11">
         <v>1.97</v>
       </c>
-      <c r="E11">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.83543999999999985</v>
+      </c>
+      <c r="F11">
         <v>0.54200000000000004</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.925</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.20323</v>
+      </c>
+      <c r="J11">
         <v>1.599</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.903</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>7.6704030000000003</v>
+      </c>
+      <c r="N11">
         <v>3.06</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>1.7709999999999999</v>
       </c>
       <c r="P11">
+        <f t="shared" si="3"/>
+        <v>14.045400000000001</v>
+      </c>
+      <c r="S11">
         <v>1400</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>2.95</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1800</v>
       </c>
@@ -1445,35 +2239,51 @@
       <c r="C12">
         <v>2.2090000000000001</v>
       </c>
-      <c r="E12">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.97537499999999999</v>
+      </c>
+      <c r="F12">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.1779999999999999</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
+        <v>2.6284799999999997</v>
+      </c>
+      <c r="J12">
         <v>1.762</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>2.1389999999999998</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>9.3139319999999994</v>
+      </c>
+      <c r="N12">
         <v>3.4180000000000001</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>2.0019999999999998</v>
       </c>
       <c r="P12">
+        <f t="shared" si="3"/>
+        <v>17.524086</v>
+      </c>
+      <c r="S12">
         <v>1600</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>3.38</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1483,35 +2293,51 @@
       <c r="C13">
         <v>2.4620000000000002</v>
       </c>
-      <c r="E13">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.1343750000000001</v>
+      </c>
+      <c r="F13">
         <v>0.63300000000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2.4</v>
       </c>
       <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.0051675000000002</v>
+      </c>
+      <c r="J13">
         <v>1.9219999999999999</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>2.375</v>
       </c>
-      <c r="K13">
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>11.082251999999999</v>
+      </c>
+      <c r="N13">
         <v>3.7589999999999999</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>2.226</v>
       </c>
       <c r="P13">
+        <f t="shared" si="3"/>
+        <v>21.195121499999999</v>
+      </c>
+      <c r="S13">
         <v>1800</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>3.78</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2200</v>
       </c>
@@ -1521,35 +2347,51 @@
       <c r="C14">
         <v>2.698</v>
       </c>
-      <c r="E14">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.2789599999999999</v>
+      </c>
+      <c r="F14">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.6349999999999998</v>
       </c>
       <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.4171875000000003</v>
+      </c>
+      <c r="J14">
         <v>2.0750000000000002</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>2.609</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>12.916875000000003</v>
+      </c>
+      <c r="N14">
         <v>4.0919999999999996</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>2.448</v>
       </c>
       <c r="P14">
+        <f t="shared" si="3"/>
+        <v>25.116695999999997</v>
+      </c>
+      <c r="S14">
         <v>2000</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>4.26</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2400</v>
       </c>
@@ -1559,35 +2401,51 @@
       <c r="C15">
         <v>2.9289999999999998</v>
       </c>
-      <c r="E15">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.42296</v>
+      </c>
+      <c r="F15">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.8439999999999999</v>
       </c>
       <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.7914075</v>
+      </c>
+      <c r="J15">
         <v>2.2149999999999999</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>2.85</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>14.718674999999998</v>
+      </c>
+      <c r="N15">
         <v>4.46</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>2.6880000000000002</v>
       </c>
       <c r="P15">
+        <f t="shared" si="3"/>
+        <v>29.837400000000002</v>
+      </c>
+      <c r="S15">
         <v>2200</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>4.6900000000000004</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2600</v>
       </c>
@@ -1597,35 +2455,51 @@
       <c r="C16">
         <v>3.1669999999999998</v>
       </c>
-      <c r="E16">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.5649350000000002</v>
+      </c>
+      <c r="F16">
         <v>0.748</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.0859999999999999</v>
       </c>
       <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4.1962799999999998</v>
+      </c>
+      <c r="J16">
         <v>2.3650000000000002</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>3.1</v>
       </c>
-      <c r="K16">
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>16.779675000000005</v>
+      </c>
+      <c r="N16">
         <v>4.78</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>2.9119999999999999</v>
       </c>
       <c r="P16">
+        <f t="shared" si="3"/>
+        <v>34.272600000000004</v>
+      </c>
+      <c r="S16">
         <v>2400</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>5.1100000000000003</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>0.501</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2800</v>
       </c>
@@ -1635,35 +2509,51 @@
       <c r="C17">
         <v>3.4079999999999999</v>
       </c>
-      <c r="E17">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.703535</v>
+      </c>
+      <c r="F17">
         <v>0.78</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3.306</v>
       </c>
       <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.5630000000000006</v>
+      </c>
+      <c r="J17">
         <v>2.496</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>3.339</v>
       </c>
-      <c r="K17">
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>18.690048000000001</v>
+      </c>
+      <c r="N17">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>3.14</v>
       </c>
       <c r="P17">
+        <f t="shared" si="3"/>
+        <v>39.015000000000001</v>
+      </c>
+      <c r="S17">
         <v>2600</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>5.57</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -1673,35 +2563,51 @@
       <c r="C18">
         <v>3.6360000000000001</v>
       </c>
-      <c r="E18">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.8480149999999997</v>
+      </c>
+      <c r="F18">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3.5390000000000001</v>
       </c>
       <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.9450799999999999</v>
+      </c>
+      <c r="J18">
         <v>2.6190000000000002</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>3.56</v>
       </c>
-      <c r="K18">
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>20.577483000000004</v>
+      </c>
+      <c r="N18">
         <v>5.41</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>3.36</v>
       </c>
       <c r="P18">
+        <f t="shared" si="3"/>
+        <v>43.902149999999999</v>
+      </c>
+      <c r="S18">
         <v>2800</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>5.98</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3200</v>
       </c>
@@ -1711,35 +2617,51 @@
       <c r="C19">
         <v>3.8559999999999999</v>
       </c>
-      <c r="E19">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.9765350000000002</v>
+      </c>
+      <c r="F19">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3.7469999999999999</v>
       </c>
       <c r="H19">
+        <f t="shared" si="1"/>
+        <v>5.2668299999999997</v>
+      </c>
+      <c r="J19">
         <v>2.75</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>3.8170000000000002</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>22.6875</v>
+      </c>
+      <c r="N19">
         <v>5.72</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>3.58</v>
       </c>
       <c r="P19">
+        <f t="shared" si="3"/>
+        <v>49.07759999999999</v>
+      </c>
+      <c r="S19">
         <v>3000</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>6.42</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3400</v>
       </c>
@@ -1749,35 +2671,51 @@
       <c r="C20">
         <v>4.1050000000000004</v>
       </c>
-      <c r="E20">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="F20">
         <v>0.86599999999999999</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3.9860000000000002</v>
       </c>
       <c r="H20">
+        <f t="shared" si="1"/>
+        <v>5.6246700000000001</v>
+      </c>
+      <c r="J20">
         <v>2.86</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>4.0439999999999996</v>
       </c>
-      <c r="K20">
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>24.538799999999995</v>
+      </c>
+      <c r="N20">
         <v>6</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>3.8079999999999998</v>
       </c>
       <c r="P20">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="S20">
         <v>3200</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>6.86</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3600</v>
       </c>
@@ -1787,35 +2725,51 @@
       <c r="C21">
         <v>4.3339999999999996</v>
       </c>
-      <c r="E21">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.2465350000000002</v>
+      </c>
+      <c r="F21">
         <v>0.89</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4.2039999999999997</v>
       </c>
       <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5.9407500000000004</v>
+      </c>
+      <c r="J21">
         <v>2.9860000000000002</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>4.3070000000000004</v>
       </c>
-      <c r="K21">
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>26.748588000000005</v>
+      </c>
+      <c r="N21">
         <v>6.28</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>4.0179999999999998</v>
       </c>
       <c r="P21">
+        <f t="shared" si="3"/>
+        <v>59.157600000000002</v>
+      </c>
+      <c r="S21">
         <v>3400</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>7.28</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3800</v>
       </c>
@@ -1825,35 +2779,51 @@
       <c r="C22">
         <v>4.54</v>
       </c>
-      <c r="E22">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.3641350000000001</v>
+      </c>
+      <c r="F22">
         <v>0.91400000000000003</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4.4340000000000002</v>
       </c>
       <c r="H22">
+        <f t="shared" si="1"/>
+        <v>6.2654700000000005</v>
+      </c>
+      <c r="J22">
         <v>3.093</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>4.5419999999999998</v>
       </c>
-      <c r="K22">
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>28.699947000000002</v>
+      </c>
+      <c r="N22">
         <v>6.56</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>4.24</v>
       </c>
       <c r="P22">
+        <f t="shared" si="3"/>
+        <v>64.550399999999996</v>
+      </c>
+      <c r="S22">
         <v>3600</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>7.72</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -1863,53 +2833,69 @@
       <c r="C23">
         <v>4.7640000000000002</v>
       </c>
-      <c r="E23">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.4969599999999996</v>
+      </c>
+      <c r="F23">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4.6340000000000003</v>
       </c>
       <c r="H23">
+        <f t="shared" si="1"/>
+        <v>6.5426700000000011</v>
+      </c>
+      <c r="J23">
         <v>3.1890000000000001</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>4.7629999999999999</v>
       </c>
-      <c r="K23">
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>30.509163000000001</v>
+      </c>
+      <c r="N23">
         <v>6.84</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>4.4379999999999997</v>
       </c>
       <c r="P23">
+        <f t="shared" si="3"/>
+        <v>70.178399999999996</v>
+      </c>
+      <c r="S23">
         <v>3800</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>8.15</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>0.63</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S24">
         <v>4000</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>8.58</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S25">
         <v>4200</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>9.02</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>0.65800000000000003</v>
       </c>
     </row>

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Speed</t>
   </si>
@@ -55,6 +55,12 @@
   <si>
     <t>P</t>
   </si>
+  <si>
+    <t>Short Circuit</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
+  </si>
 </sst>
 </file>
 
@@ -75,12 +81,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,9 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,11 +634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114898048"/>
-        <c:axId val="40893824"/>
+        <c:axId val="68682496"/>
+        <c:axId val="68684416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114898048"/>
+        <c:axId val="68682496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,12 +667,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40893824"/>
+        <c:crossAx val="68684416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40893824"/>
+        <c:axId val="68684416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114898048"/>
+        <c:crossAx val="68682496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,11 +1240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42438016"/>
-        <c:axId val="42435328"/>
+        <c:axId val="68735360"/>
+        <c:axId val="68737280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42438016"/>
+        <c:axId val="68735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,12 +1273,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42435328"/>
+        <c:crossAx val="68737280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42435328"/>
+        <c:axId val="68737280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1308,149 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42438016"/>
+        <c:crossAx val="68735360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="65269760"/>
+        <c:axId val="65267968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65269760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65267968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65267968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65269760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1373,6 +1529,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1670,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
@@ -2908,13 +3099,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>36.1</v>
+      </c>
+      <c r="C5">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <v>43.6</v>
+      </c>
+      <c r="C6">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B8" s="3">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3500</v>
+      </c>
+      <c r="B10" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Speed</t>
   </si>
@@ -59,14 +60,62 @@
     <t>Short Circuit</t>
   </si>
   <si>
-    <t>Theoretical</t>
+    <t>Oscilloscope</t>
+  </si>
+  <si>
+    <t>Vrms</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Vpk-pk</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>Thiers</t>
+  </si>
+  <si>
+    <t>Vamp</t>
+  </si>
+  <si>
+    <t>Vph-ph</t>
+  </si>
+  <si>
+    <t>332rpm/V</t>
+  </si>
+  <si>
+    <t>Synchronous Impedance</t>
+  </si>
+  <si>
+    <t>Generator resistance MPK254 Micro ohmmeter</t>
+  </si>
+  <si>
+    <t>R=0.5 fluke 8845A digital precision meter 4 wire</t>
+  </si>
+  <si>
+    <t>current kaise sk-7711 clamp meter</t>
+  </si>
+  <si>
+    <t>red out</t>
+  </si>
+  <si>
+    <t>black out</t>
+  </si>
+  <si>
+    <t>yellow out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +129,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +159,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +211,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -170,71 +219,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.311</c:v>
+                  <c:v>0.76179131000556843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>1.2737346662472526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.752</c:v>
+                  <c:v>1.8420162865729499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>2.4274443350981296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.256</c:v>
+                  <c:v>3.0765591169356719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.486</c:v>
+                  <c:v>3.6399417577758024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.726</c:v>
+                  <c:v>4.2278192960437657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.97</c:v>
+                  <c:v>4.8254947932828607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2090000000000001</c:v>
+                  <c:v>5.4109228418080413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4620000000000002</c:v>
+                  <c:v>6.030643746732185</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.698</c:v>
+                  <c:v>6.6087233260290148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9289999999999998</c:v>
+                  <c:v>7.1745554566119285</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1669999999999998</c:v>
+                  <c:v>7.7575340153943237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4079999999999999</c:v>
+                  <c:v>8.3478610434050697</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6360000000000001</c:v>
+                  <c:v>8.9063447047596362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8559999999999999</c:v>
+                  <c:v>9.4452324481719341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>10.055155394124947</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3339999999999996</c:v>
+                  <c:v>10.616088545222292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.54</c:v>
+                  <c:v>11.120683432235628</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7640000000000002</c:v>
+                  <c:v>11.66936913461906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$23</c:f>
+              <c:f>Sheet1!$E$3:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -311,7 +360,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +371,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$23</c:f>
+              <c:f>Sheet1!$N$3:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -330,71 +379,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.71770049463547114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.501</c:v>
+                  <c:v>1.2271943611343723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>1.7979254712028525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96299999999999997</c:v>
+                  <c:v>2.3588586223002004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2</c:v>
+                  <c:v>2.9393876913398134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4390000000000001</c:v>
+                  <c:v>3.5248157398649935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.66</c:v>
+                  <c:v>4.0661529730200749</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.903</c:v>
+                  <c:v>4.6613789805163881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1389999999999998</c:v>
+                  <c:v>5.239458559813218</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.375</c:v>
+                  <c:v>5.8175381391100478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.609</c:v>
+                  <c:v>6.3907187389213123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.85</c:v>
+                  <c:v>6.9810457669320574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1</c:v>
+                  <c:v>7.5934182026278521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.339</c:v>
+                  <c:v>8.1788462511530309</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.56</c:v>
+                  <c:v>8.7201834843081141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8170000000000002</c:v>
+                  <c:v>9.3497023482033903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0439999999999996</c:v>
+                  <c:v>9.9057365198151714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3070000000000004</c:v>
+                  <c:v>10.549952322167149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5419999999999998</c:v>
+                  <c:v>11.125582411721195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7629999999999999</c:v>
+                  <c:v>11.666919644876277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$23</c:f>
+              <c:f>Sheet1!$O$3:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -471,7 +520,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -482,7 +531,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$23</c:f>
+              <c:f>Sheet1!$S$3:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -490,71 +539,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.48989794855663571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42299999999999999</c:v>
+                  <c:v>1.0361341611972843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>1.5799208840951497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86899999999999999</c:v>
+                  <c:v>2.1286065864785817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0980000000000001</c:v>
+                  <c:v>2.6895397375759296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.333</c:v>
+                  <c:v>3.2651698271299763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5509999999999999</c:v>
+                  <c:v>3.7991585910567092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7709999999999999</c:v>
+                  <c:v>4.3380463344690083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0019999999999998</c:v>
+                  <c:v>4.903878465051922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.226</c:v>
+                  <c:v>5.4525641674353542</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.448</c:v>
+                  <c:v>5.9963508903332201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6880000000000002</c:v>
+                  <c:v>6.5842284286011825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9119999999999999</c:v>
+                  <c:v>7.1329141309846147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.14</c:v>
+                  <c:v>7.6913977923391794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.36</c:v>
+                  <c:v>8.2302855357514773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.58</c:v>
+                  <c:v>8.7691732791637786</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>9.3276569405183416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0179999999999998</c:v>
+                  <c:v>9.8420497865028089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.24</c:v>
+                  <c:v>10.385836509400676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4379999999999997</c:v>
+                  <c:v>10.870835478471744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$23</c:f>
+              <c:f>Sheet1!$T$3:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -634,11 +683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68682496"/>
-        <c:axId val="68684416"/>
+        <c:axId val="107417600"/>
+        <c:axId val="107419520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68682496"/>
+        <c:axId val="107417600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,12 +716,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68684416"/>
+        <c:crossAx val="107419520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68684416"/>
+        <c:axId val="107419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68682496"/>
+        <c:crossAx val="107417600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -768,7 +817,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$23</c:f>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -776,64 +825,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.311</c:v>
+                  <c:v>0.76179131000556843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>1.2737346662472526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.752</c:v>
+                  <c:v>1.8420162865729499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>2.4274443350981296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.256</c:v>
+                  <c:v>3.0765591169356719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.486</c:v>
+                  <c:v>3.6399417577758024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.726</c:v>
+                  <c:v>4.2278192960437657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.97</c:v>
+                  <c:v>4.8254947932828607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2090000000000001</c:v>
+                  <c:v>5.4109228418080413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4620000000000002</c:v>
+                  <c:v>6.030643746732185</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.698</c:v>
+                  <c:v>6.6087233260290148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9289999999999998</c:v>
+                  <c:v>7.1745554566119285</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1669999999999998</c:v>
+                  <c:v>7.7575340153943237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4079999999999999</c:v>
+                  <c:v>8.3478610434050697</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6360000000000001</c:v>
+                  <c:v>8.9063447047596362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8559999999999999</c:v>
+                  <c:v>9.4452324481719341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>10.055155394124947</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3339999999999996</c:v>
+                  <c:v>10.616088545222292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.54</c:v>
+                  <c:v>11.120683432235628</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7640000000000002</c:v>
+                  <c:v>11.66936913461906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +966,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -928,7 +977,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$23</c:f>
+              <c:f>Sheet1!$N$3:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -936,71 +985,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.71770049463547114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.501</c:v>
+                  <c:v>1.2271943611343723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>1.7979254712028525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96299999999999997</c:v>
+                  <c:v>2.3588586223002004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2</c:v>
+                  <c:v>2.9393876913398134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4390000000000001</c:v>
+                  <c:v>3.5248157398649935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.66</c:v>
+                  <c:v>4.0661529730200749</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.903</c:v>
+                  <c:v>4.6613789805163881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1389999999999998</c:v>
+                  <c:v>5.239458559813218</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.375</c:v>
+                  <c:v>5.8175381391100478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.609</c:v>
+                  <c:v>6.3907187389213123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.85</c:v>
+                  <c:v>6.9810457669320574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1</c:v>
+                  <c:v>7.5934182026278521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.339</c:v>
+                  <c:v>8.1788462511530309</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.56</c:v>
+                  <c:v>8.7201834843081141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8170000000000002</c:v>
+                  <c:v>9.3497023482033903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0439999999999996</c:v>
+                  <c:v>9.9057365198151714</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3070000000000004</c:v>
+                  <c:v>10.549952322167149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5419999999999998</c:v>
+                  <c:v>11.125582411721195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7629999999999999</c:v>
+                  <c:v>11.666919644876277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$23</c:f>
+              <c:f>Sheet1!$L$3:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1077,7 +1126,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,7 +1137,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$23</c:f>
+              <c:f>Sheet1!$S$3:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1096,71 +1145,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.48989794855663571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42299999999999999</c:v>
+                  <c:v>1.0361341611972843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>1.5799208840951497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86899999999999999</c:v>
+                  <c:v>2.1286065864785817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0980000000000001</c:v>
+                  <c:v>2.6895397375759296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.333</c:v>
+                  <c:v>3.2651698271299763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5509999999999999</c:v>
+                  <c:v>3.7991585910567092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7709999999999999</c:v>
+                  <c:v>4.3380463344690083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0019999999999998</c:v>
+                  <c:v>4.903878465051922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.226</c:v>
+                  <c:v>5.4525641674353542</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.448</c:v>
+                  <c:v>5.9963508903332201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6880000000000002</c:v>
+                  <c:v>6.5842284286011825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9119999999999999</c:v>
+                  <c:v>7.1329141309846147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.14</c:v>
+                  <c:v>7.6913977923391794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.36</c:v>
+                  <c:v>8.2302855357514773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.58</c:v>
+                  <c:v>8.7691732791637786</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>9.3276569405183416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0179999999999998</c:v>
+                  <c:v>9.8420497865028089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.24</c:v>
+                  <c:v>10.385836509400676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4379999999999997</c:v>
+                  <c:v>10.870835478471744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$23</c:f>
+              <c:f>Sheet1!$Q$3:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1240,11 +1289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68735360"/>
-        <c:axId val="68737280"/>
+        <c:axId val="107462016"/>
+        <c:axId val="107468288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68735360"/>
+        <c:axId val="107462016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,12 +1322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68737280"/>
+        <c:crossAx val="107468288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68737280"/>
+        <c:axId val="107468288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68735360"/>
+        <c:crossAx val="107462016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1396,16 +1445,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.02</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.29</c:v>
+                  <c:v>9.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3899999999999997</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,11 +1469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65269760"/>
-        <c:axId val="65267968"/>
+        <c:axId val="112128384"/>
+        <c:axId val="112129920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65269760"/>
+        <c:axId val="112128384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,12 +1483,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65267968"/>
+        <c:crossAx val="112129920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65267968"/>
+        <c:axId val="112129920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,9 +1499,387 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65269760"/>
+        <c:crossAx val="112128384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23664479440069991"/>
+                  <c:y val="-0.18983340624088654"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="112167168"/>
+        <c:axId val="112173056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112167168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112173056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112173056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112167168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="41808640"/>
+        <c:axId val="41810176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41808640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41810176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41810176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41808640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1476,16 +1903,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1506,16 +1933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1564,6 +1991,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1859,32 +2346,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1892,49 +2379,61 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Y2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1945,50 +2444,66 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <f>C3*SQRT(2)*SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
         <f>B3^2*5*3</f>
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <f>F3^2*2.5*3</f>
         <v>0</v>
       </c>
+      <c r="I3">
+        <f>H3*SQRT(2)*SQRT(3)</f>
+        <v>0</v>
+      </c>
       <c r="J3">
+        <f>G3^2*2.5*3</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <f>J3^2*1*3</f>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
+        <f>M3*SQRT(2)*SQRT(3)</f>
         <v>0</v>
       </c>
       <c r="O3">
+        <f>L3^2*1*3</f>
         <v>0</v>
       </c>
-      <c r="P3">
-        <f>N3^2*0.5*3</f>
+      <c r="Q3">
         <v>0</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
+        <f>R3*SQRT(2)*SQRT(3)</f>
         <v>0</v>
       </c>
       <c r="T3">
+        <f>Q3^2*0.5*3</f>
         <v>0</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -1999,50 +2514,66 @@
         <v>0.311</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D23" si="0">B4^2*5*3</f>
+        <f t="shared" ref="D4:D23" si="0">C4*SQRT(2)*SQRT(3)</f>
+        <v>0.76179131000556843</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E23" si="1">B4^2*5*3</f>
         <v>3.1739999999999997E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.09</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H23" si="1">F4^2*2.5*3</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I23" si="2">H4*SQRT(2)*SQRT(3)</f>
+        <v>0.71525100489268789</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J23" si="3">G4^2*2.5*3</f>
         <v>6.0749999999999992E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.22</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.29299999999999998</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L23" si="2">J4^2*1*3</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N23" si="4">M4*SQRT(2)*SQRT(3)</f>
+        <v>0.71770049463547114</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O23" si="5">L4^2*1*3</f>
         <v>0.1452</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0.38900000000000001</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.2</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P23" si="3">N4^2*0.5*3</f>
+      <c r="S4">
+        <f t="shared" ref="S4:S23" si="6">R4*SQRT(2)*SQRT(3)</f>
+        <v>0.48989794855663571</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T23" si="7">Q4^2*0.5*3</f>
         <v>0.2269815</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>140</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>0.246</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -2054,49 +2585,65 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
+        <v>1.2737346662472526</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
         <v>0.10584000000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.18</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.2639367072761201</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
         <v>0.24299999999999997</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.44400000000000001</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.501</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>1.2271943611343723</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
         <v>0.59140800000000004</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>0.79500000000000004</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>0.42299999999999999</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>1.0361341611972843</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
         <v>0.94803750000000009</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>200</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>0.38700000000000001</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
@@ -2108,49 +2655,65 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
+        <v>1.8420162865729499</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
         <v>0.19494000000000003</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.252</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.72799999999999998</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.7832285327461537</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
         <v>0.47628000000000004</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.66500000000000004</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1.7979254712028525</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
         <v>1.326675</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>1.1859999999999999</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>0.64500000000000002</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>1.5799208840951497</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
         <v>2.1098939999999997</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>400</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>0.80100000000000005</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>800</v>
       </c>
@@ -2162,49 +2725,65 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
+        <v>2.4274443350981296</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>0.30245999999999995</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.32200000000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2.4200958658697802</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
         <v>0.77763000000000015</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.86199999999999999</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.96299999999999997</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>2.3588586223002004</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
         <v>2.2291319999999999</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>1.579</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>0.86899999999999999</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>2.1286065864785817</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
         <v>3.7398614999999999</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>600</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>1.2</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>0.188</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2216,49 +2795,65 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
+        <v>3.0765591169356719</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
         <v>0.43350000000000005</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.38200000000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.22</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>2.9883774861954775</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
         <v>1.09443</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1.06</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1.2</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>2.9393876913398134</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
         <v>3.3708000000000005</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>1.97</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>1.0980000000000001</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>2.6895397375759296</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
         <v>5.8213499999999998</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>800</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>1.67</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1200</v>
       </c>
@@ -2270,49 +2865,65 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
+        <v>3.6399417577758024</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
         <v>0.55873500000000009</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.439</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.4570000000000001</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>3.5689065552350909</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
         <v>1.4454075</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>1.2490000000000001</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1.4390000000000001</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>3.5248157398649935</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
         <v>4.680003000000001</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>2.3530000000000002</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>1.333</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>3.2651698271299763</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
         <v>8.3049135000000014</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>1000</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>2.06</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1400</v>
       </c>
@@ -2324,49 +2935,65 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
+        <v>4.2278192960437657</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
         <v>0.68694</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.496</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.708</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>4.1837284806736683</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
         <v>1.8451199999999996</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>1.4219999999999999</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1.66</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>4.0661529730200749</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
         <v>6.0662520000000004</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>2.7080000000000002</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>1.5509999999999999</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>3.7991585910567092</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
         <v>10.999896000000001</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>1200</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>2.5049999999999999</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -2378,49 +3005,65 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
+        <v>4.8254947932828607</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
         <v>0.83543999999999985</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.54200000000000004</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.925</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>4.7152677548576181</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
         <v>2.20323</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>1.599</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1.903</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>4.6613789805163881</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
         <v>7.6704030000000003</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>3.06</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1.7709999999999999</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>4.3380463344690083</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
         <v>14.045400000000001</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>1400</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>2.95</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1800</v>
       </c>
@@ -2432,49 +3075,65 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
+        <v>5.4109228418080413</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
         <v>0.97537499999999999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.59199999999999997</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.1779999999999999</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>5.3349886597817617</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
         <v>2.6284799999999997</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1.762</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>2.1389999999999998</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>5.239458559813218</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
         <v>9.3139319999999994</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>3.4180000000000001</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>2.0019999999999998</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>4.903878465051922</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
         <v>17.524086</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>1600</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>3.38</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -2486,49 +3145,65 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
+        <v>6.030643746732185</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
         <v>1.1343750000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.63300000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.4</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>5.8787753826796267</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
         <v>3.0051675000000002</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>1.9219999999999999</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>2.375</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>5.8175381391100478</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
         <v>11.082251999999999</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>3.7589999999999999</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>2.226</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>5.4525641674353542</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
         <v>21.195121499999999</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>1800</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>3.78</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2200</v>
       </c>
@@ -2540,49 +3215,65 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
+        <v>6.6087233260290148</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
         <v>1.2789599999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.67500000000000004</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.6349999999999998</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>6.4544054722336739</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
         <v>3.4171875000000003</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>2.0750000000000002</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>2.609</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>6.3907187389213123</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
         <v>12.916875000000003</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>4.0919999999999996</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>2.448</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>5.9963508903332201</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
         <v>25.116695999999997</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>2000</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>4.26</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2400</v>
       </c>
@@ -2594,49 +3285,65 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
+        <v>7.1745554566119285</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
         <v>1.42296</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.71099999999999997</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.8439999999999999</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>6.9663488284753576</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
         <v>3.7914075</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>2.2149999999999999</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>2.85</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>6.9810457669320574</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
         <v>14.718674999999998</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>4.46</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>2.6880000000000002</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>6.5842284286011825</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
         <v>29.837400000000002</v>
       </c>
-      <c r="S15">
+      <c r="W15">
         <v>2200</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>4.6900000000000004</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2600</v>
       </c>
@@ -2648,49 +3355,65 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
+        <v>7.7575340153943237</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
         <v>1.5649350000000002</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.748</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.0859999999999999</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>7.5591253462288881</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
         <v>4.1962799999999998</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>2.3650000000000002</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>3.1</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>7.5934182026278521</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
         <v>16.779675000000005</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>4.78</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>2.9119999999999999</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>7.1329141309846147</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
         <v>34.272600000000004</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>2400</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>5.1100000000000003</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>0.501</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2800</v>
       </c>
@@ -2702,49 +3425,65 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
+        <v>8.3478610434050697</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
         <v>1.703535</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.78</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.306</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>8.0980130896411868</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
         <v>4.5630000000000006</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>2.496</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>3.339</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>8.1788462511530309</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
         <v>18.690048000000001</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>3.14</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>7.6913977923391794</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
         <v>39.015000000000001</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>2600</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>5.57</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -2756,49 +3495,65 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
+        <v>8.9063447047596362</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
         <v>1.8480149999999997</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.81200000000000006</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3.5390000000000001</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>8.6687441997096677</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
         <v>4.9450799999999999</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>2.6190000000000002</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>3.56</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>8.7201834843081141</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
         <v>20.577483000000004</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>5.41</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>3.36</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>8.2302855357514773</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
         <v>43.902149999999999</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>2800</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>5.98</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3200</v>
       </c>
@@ -2810,49 +3565,65 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
+        <v>9.4452324481719341</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
         <v>1.9765350000000002</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.83799999999999997</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.7469999999999999</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>9.1782380662085679</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
         <v>5.2668299999999997</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>2.75</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>3.8170000000000002</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>9.3497023482033903</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
         <v>22.6875</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>5.72</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>3.58</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>8.7691732791637786</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
         <v>49.07759999999999</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>3000</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>6.42</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3400</v>
       </c>
@@ -2864,49 +3635,65 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
+        <v>10.055155394124947</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
         <v>2.1206399999999999</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.86599999999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3.9860000000000002</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>9.7636661147337485</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
         <v>5.6246700000000001</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>2.86</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>4.0439999999999996</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9.9057365198151714</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
         <v>24.538799999999995</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>6</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>3.8079999999999998</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>9.3276569405183416</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>3200</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>6.86</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3600</v>
       </c>
@@ -2918,49 +3705,65 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
+        <v>10.616088545222292</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
         <v>2.2465350000000002</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.89</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4.2039999999999997</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>10.297654878660481</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
         <v>5.9407500000000004</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>2.9860000000000002</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>4.3070000000000004</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10.549952322167149</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
         <v>26.748588000000005</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>6.28</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>4.0179999999999998</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>9.8420497865028089</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
         <v>59.157600000000002</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>3400</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>7.28</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3800</v>
       </c>
@@ -2972,49 +3775,65 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
+        <v>11.120683432235628</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
         <v>2.3641350000000001</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.91400000000000003</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.4340000000000002</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>10.861037519500613</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
         <v>6.2654700000000005</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>3.093</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>4.5419999999999998</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11.125582411721195</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
         <v>28.699947000000002</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>6.56</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>4.24</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>10.385836509400676</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
         <v>64.550399999999996</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>3600</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>7.72</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -3026,67 +3845,83 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
+        <v>11.66936913461906</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
         <v>2.4969599999999996</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.93400000000000005</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>4.6340000000000003</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>11.35093546805725</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
         <v>6.5426700000000011</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>3.1890000000000001</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>4.7629999999999999</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>11.666919644876277</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
         <v>30.509163000000001</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>6.84</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>4.4379999999999997</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>10.870835478471744</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="7"/>
         <v>70.178399999999996</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>3800</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>8.15</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>0.63</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="S24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W24">
         <v>4000</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>8.58</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="S25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W25">
         <v>4200</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>9.02</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
         <v>0.65800000000000003</v>
       </c>
     </row>
@@ -3099,23 +3934,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3136,8 +3972,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -3145,10 +3984,13 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.88</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -3156,10 +3998,13 @@
         <v>36.1</v>
       </c>
       <c r="C5">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.28</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -3167,10 +4012,13 @@
         <v>43.6</v>
       </c>
       <c r="C6">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.31</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -3178,60 +4026,560 @@
         <v>53</v>
       </c>
       <c r="C7">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2500</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>62</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C8" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>3000</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>63.4</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C9" s="2">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>3500</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>66.3</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C10" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>4000</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>0.1022*(E15^3)</f>
+        <v>144.58592223018724</v>
+      </c>
+      <c r="E15">
+        <v>11.226000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>2.7396*(E15^2)</f>
+        <v>345.25281900960005</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>26.658*E15</f>
+        <v>299.26270800000003</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>23.594000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>D15-D16+D17-D18</f>
+        <v>75.001811220587228</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>E15*500-500</f>
+        <v>5113</v>
+      </c>
+      <c r="E21">
+        <f>3.2382*E15-3.4942</f>
+        <v>32.857833200000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <f>32.86/75</f>
+        <v>0.43813333333333332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>C3/2</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>G3*SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>A3/332</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>1.68</v>
+      </c>
+      <c r="D4">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="0">C4/2</f>
+        <v>0.84</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H11" si="1">G4*SQRT(3)</f>
+        <v>1.4549226783578568</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I11" si="2">A4/332</f>
+        <v>1.5060240963855422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>3.44</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+      <c r="E5">
+        <v>1.83</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.9791273890184686</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>3.0120481927710845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <v>177</v>
+      </c>
+      <c r="C6">
+        <v>5.2</v>
+      </c>
+      <c r="D6">
+        <v>1.77</v>
+      </c>
+      <c r="E6">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4.5033320996790804</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>4.5180722891566267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>230</v>
+      </c>
+      <c r="C7">
+        <v>6.96</v>
+      </c>
+      <c r="D7">
+        <v>2.38</v>
+      </c>
+      <c r="E7">
+        <v>3.4569999999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6.0275368103396927</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>6.024096385542169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2500</v>
+      </c>
+      <c r="B8">
+        <v>289</v>
+      </c>
+      <c r="C8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>7.6210235533030604</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>7.5301204819277112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3000</v>
+      </c>
+      <c r="B9">
+        <v>348</v>
+      </c>
+      <c r="C9">
+        <v>10.6</v>
+      </c>
+      <c r="D9">
+        <v>3.64</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>9.1798692801150494</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>9.0361445783132535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3500</v>
+      </c>
+      <c r="B10">
+        <v>407</v>
+      </c>
+      <c r="C10">
+        <v>12.2</v>
+      </c>
+      <c r="D10">
+        <v>4.24</v>
+      </c>
+      <c r="E10">
+        <v>5.71</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>10.565509926170151</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>10.542168674698795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11">
+        <v>463</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>4.84</v>
+      </c>
+      <c r="E11">
+        <v>6.33</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>12.124355652982141</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>12.048192771084338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>A4/B4</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" ref="B15:B21" si="3">A5/B5</f>
+        <v>8.695652173913043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>8.4745762711864412</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <f>7*SQRT(3)</f>
+        <v>12.124355652982141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>8.6505190311418687</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f>4000/332</f>
+        <v>12.048192771084338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>8.6206896551724146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>8.5995085995085994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>8.639308855291576</v>
+      </c>
+      <c r="H21">
+        <f>4000*7/60</f>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="K21">
+        <f>4.84^2/0.5</f>
+        <v>46.851199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>AVERAGE(B14:B21)</f>
+        <v>8.6833519813795093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>36.61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>37.47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Speed</t>
   </si>
@@ -87,9 +87,6 @@
     <t>332rpm/V</t>
   </si>
   <si>
-    <t>Synchronous Impedance</t>
-  </si>
-  <si>
     <t>Generator resistance MPK254 Micro ohmmeter</t>
   </si>
   <si>
@@ -110,12 +107,37 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>V/I</t>
+  </si>
+  <si>
+    <t>R=</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L=</t>
+  </si>
+  <si>
+    <t>Iscrms</t>
+  </si>
+  <si>
+    <t>Vocpk-pk, ph-ph</t>
+  </si>
+  <si>
+    <t>Vocrms,ph-ph</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,11 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,24 +201,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -675,23 +687,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="107417600"/>
-        <c:axId val="107419520"/>
+        <c:dLbls/>
+        <c:axId val="112129152"/>
+        <c:axId val="112131072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107417600"/>
+        <c:axId val="112129152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -710,22 +714,18 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107419520"/>
+        <c:crossAx val="112131072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107419520"/>
+        <c:axId val="112131072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -753,13 +753,10 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107417600"/>
+        <c:crossAx val="112129152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -767,15 +764,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -783,24 +778,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1281,23 +1264,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="107462016"/>
-        <c:axId val="107468288"/>
+        <c:dLbls/>
+        <c:axId val="112178688"/>
+        <c:axId val="112180608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107462016"/>
+        <c:axId val="112178688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1316,22 +1291,18 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107468288"/>
+        <c:crossAx val="112180608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107468288"/>
+        <c:axId val="112180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1351,13 +1322,10 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107462016"/>
+        <c:crossAx val="112178688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1365,535 +1333,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$3:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="112128384"/>
-        <c:axId val="112129920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="112128384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112129920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="112129920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112128384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.23664479440069991"/>
-                  <c:y val="-0.18983340624088654"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="112167168"/>
-        <c:axId val="112173056"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="112167168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112173056"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="112173056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112167168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$3:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="41808640"/>
-        <c:axId val="41810176"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="41808640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41810176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="41810176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41808640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1956,101 +1402,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2134,7 +1485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2169,7 +1519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2345,16 +1694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3:S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2503,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -2573,7 +1922,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -2643,7 +1992,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>600</v>
       </c>
@@ -2713,7 +2062,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>800</v>
       </c>
@@ -2783,7 +2132,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2853,7 +2202,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>1200</v>
       </c>
@@ -2923,7 +2272,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>1400</v>
       </c>
@@ -2993,7 +2342,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -3063,7 +2412,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>1800</v>
       </c>
@@ -3133,7 +2482,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -3203,7 +2552,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>2200</v>
       </c>
@@ -3273,7 +2622,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>2400</v>
       </c>
@@ -3343,7 +2692,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>2600</v>
       </c>
@@ -3413,7 +2762,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>2800</v>
       </c>
@@ -3483,7 +2832,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -3553,7 +2902,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>3200</v>
       </c>
@@ -3623,7 +2972,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>3400</v>
       </c>
@@ -3693,7 +3042,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>3600</v>
       </c>
@@ -3763,7 +3112,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>3800</v>
       </c>
@@ -3833,7 +3182,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -3903,7 +3252,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="W24">
         <v>4000</v>
       </c>
@@ -3914,7 +3263,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="W25">
         <v>4200</v>
       </c>
@@ -3933,36 +3282,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3972,11 +3332,18 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
+        <f>C3/2*SQRT(2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>500</v>
       </c>
@@ -3986,11 +3353,23 @@
       <c r="C4">
         <v>2.88</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D11" si="0">C4/2*SQRT(2)</f>
+        <v>2.0364675298172568</v>
+      </c>
+      <c r="E4">
+        <f>D4/B4</f>
+        <v>0.10182337649086284</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f>((E4^2)-E17^2)/(A4/60*2*PI())</f>
+        <v>1.9801421399721249E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -4000,11 +3379,23 @@
       <c r="C5">
         <v>6.28</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4406305858515189</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="1">D5/B5</f>
+        <v>0.12300915750281215</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G11" si="2">((E5^2)-E18^2)/(A5/60*2*PI())</f>
+        <v>1.4449282097978234E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -4014,11 +3405,23 @@
       <c r="C6">
         <v>9.31</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5831641328467585</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.15099000304694399</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4513645487466785E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -4028,11 +3431,23 @@
       <c r="C7">
         <v>12.6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.909545442950499</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.16810463099906603</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3492758329620492E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>2500</v>
       </c>
@@ -4042,11 +3457,23 @@
       <c r="C8" s="2">
         <v>15.8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>11.172287142747452</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.1801981797217331</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2403155044784839E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>3000</v>
       </c>
@@ -4056,11 +3483,23 @@
       <c r="C9" s="2">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>13.435028842544403</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.21190897227988018</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4293836752324687E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>3500</v>
       </c>
@@ -4070,11 +3509,23 @@
       <c r="C10" s="2">
         <v>22.6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>15.980613254815976</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.24103489072120629</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5851237150211716E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>4000</v>
       </c>
@@ -4084,90 +3535,65 @@
       <c r="C11" s="2">
         <v>25.8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>18.243354954612929</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.26439644861757866</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <f>0.1022*(E15^3)</f>
-        <v>144.58592223018724</v>
-      </c>
-      <c r="E15">
-        <v>11.226000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <f>2.7396*(E15^2)</f>
-        <v>345.25281900960005</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <f>26.658*E15</f>
-        <v>299.26270800000003</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>23.594000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <f>D15-D16+D17-D18</f>
-        <v>75.001811220587228</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <f>E15*500-500</f>
-        <v>5113</v>
-      </c>
-      <c r="E21">
-        <f>3.2382*E15-3.4942</f>
-        <v>32.857833200000002</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22">
-        <f>32.86/75</f>
-        <v>0.43813333333333332</v>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6688704524210653E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(G4:G11)</f>
+        <v>1.5186755098289833E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4222,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>500</v>
       </c>
@@ -4251,7 +3677,7 @@
         <v>1.5060240963855422</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -4280,7 +3706,7 @@
         <v>3.0120481927710845</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -4309,7 +3735,7 @@
         <v>4.5180722891566267</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -4338,7 +3764,7 @@
         <v>6.024096385542169</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -4367,7 +3793,7 @@
         <v>7.5301204819277112</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -4396,7 +3822,7 @@
         <v>9.0361445783132535</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -4425,7 +3851,7 @@
         <v>10.542168674698795</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -4454,25 +3880,25 @@
         <v>12.048192771084338</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14">
         <f>A4/B4</f>
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15">
         <f t="shared" ref="B15:B21" si="3">A5/B5</f>
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16">
         <f t="shared" si="3"/>
         <v>8.4745762711864412</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17">
         <f t="shared" si="3"/>
         <v>8.695652173913043</v>
@@ -4485,7 +3911,7 @@
         <v>12.124355652982141</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18">
         <f t="shared" si="3"/>
         <v>8.6505190311418687</v>
@@ -4498,19 +3924,19 @@
         <v>12.048192771084338</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19">
         <f t="shared" si="3"/>
         <v>8.6206896551724146</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20">
         <f t="shared" si="3"/>
         <v>8.5995085995085994</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21">
         <f t="shared" si="3"/>
         <v>8.639308855291576</v>
@@ -4524,7 +3950,7 @@
         <v>46.851199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22">
         <f>AVERAGE(B14:B21)</f>
         <v>8.6833519813795093</v>
@@ -4536,47 +3962,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>36.61</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>37.47</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f>AVERAGE(A2:A4)</f>
+        <v>37.693333333333335</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Speed</t>
   </si>
@@ -54,9 +54,6 @@
     <t>0.5Ω</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Short Circuit</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
   </si>
   <si>
     <t>Vpk-pk</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>Thiers</t>
   </si>
   <si>
     <t>Vamp</t>
@@ -126,7 +117,22 @@
     <t>Vocpk-pk, ph-ph</t>
   </si>
   <si>
-    <t>Vocrms,ph-ph</t>
+    <t>Vocrms</t>
+  </si>
+  <si>
+    <t>Iph-ph?</t>
+  </si>
+  <si>
+    <t>Irms</t>
+  </si>
+  <si>
+    <t>P=v2/r</t>
+  </si>
+  <si>
+    <t>P=i2*r</t>
+  </si>
+  <si>
+    <t>P=vi</t>
   </si>
 </sst>
 </file>
@@ -158,12 +164,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,13 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,7 +239,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -295,72 +309,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$23</c:f>
+              <c:f>Sheet1!$F$3:$F$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1739999999999997E-2</c:v>
+                  <c:v>1.9344199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10584000000000002</c:v>
+                  <c:v>5.4080000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19494000000000003</c:v>
+                  <c:v>0.1131008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30245999999999995</c:v>
+                  <c:v>0.19641619999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43350000000000005</c:v>
+                  <c:v>0.31550719999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55873500000000009</c:v>
+                  <c:v>0.44163920000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68694</c:v>
+                  <c:v>0.59581519999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83543999999999985</c:v>
+                  <c:v>0.77617999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97537499999999999</c:v>
+                  <c:v>0.97593620000000014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1343750000000001</c:v>
+                  <c:v>1.2122888000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2789599999999999</c:v>
+                  <c:v>1.4558408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.42296</c:v>
+                  <c:v>1.7158081999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5649350000000002</c:v>
+                  <c:v>2.0059777999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.703535</c:v>
+                  <c:v>2.3228928</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8480149999999997</c:v>
+                  <c:v>2.6440992000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9765350000000002</c:v>
+                  <c:v>2.9737471999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1206399999999999</c:v>
+                  <c:v>3.3702050000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2465350000000002</c:v>
+                  <c:v>3.7567111999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3641350000000001</c:v>
+                  <c:v>4.1223200000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4969599999999996</c:v>
+                  <c:v>4.5391392000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,9 +397,9 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$23</c:f>
+              <c:f>Sheet1!$P$3:$P$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -455,72 +469,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$23</c:f>
+              <c:f>Sheet1!$R$3:$R$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1452</c:v>
+                  <c:v>8.5848999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59140800000000004</c:v>
+                  <c:v>0.25100099999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.326675</c:v>
+                  <c:v>0.53875600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2291319999999999</c:v>
+                  <c:v>0.92736899999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3708000000000005</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.680003000000001</c:v>
+                  <c:v>2.0707210000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0662520000000004</c:v>
+                  <c:v>2.7555999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6704030000000003</c:v>
+                  <c:v>3.6214089999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3139319999999994</c:v>
+                  <c:v>4.5753209999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.082251999999999</c:v>
+                  <c:v>5.640625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.916875000000003</c:v>
+                  <c:v>6.8068809999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.718674999999998</c:v>
+                  <c:v>8.1225000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.779675000000005</c:v>
+                  <c:v>9.6100000000000012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.690048000000001</c:v>
+                  <c:v>11.148921</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.577483000000004</c:v>
+                  <c:v>12.6736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.6875</c:v>
+                  <c:v>14.569489000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.538799999999995</c:v>
+                  <c:v>16.353935999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.748588000000005</c:v>
+                  <c:v>18.550249000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.699947000000002</c:v>
+                  <c:v>20.629763999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.509163000000001</c:v>
+                  <c:v>22.686169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +546,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -543,9 +557,9 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$23</c:f>
+              <c:f>Sheet1!$V$3:$V$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -615,84 +629,83 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$3:$T$23</c:f>
+              <c:f>Sheet1!$X$3:$X$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2269815</c:v>
+                  <c:v>8.0000000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94803750000000009</c:v>
+                  <c:v>0.35785799999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1098939999999997</c:v>
+                  <c:v>0.83205000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7398614999999999</c:v>
+                  <c:v>1.5103219999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8213499999999998</c:v>
+                  <c:v>2.4112080000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3049135000000014</c:v>
+                  <c:v>3.5537779999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.999896000000001</c:v>
+                  <c:v>4.8112019999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.045400000000001</c:v>
+                  <c:v>6.2728819999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.524086</c:v>
+                  <c:v>8.0160079999999976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.195121499999999</c:v>
+                  <c:v>9.9101520000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.116695999999997</c:v>
+                  <c:v>11.985408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.837400000000002</c:v>
+                  <c:v>14.450688000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.272600000000004</c:v>
+                  <c:v>16.959488</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.015000000000001</c:v>
+                  <c:v>19.719200000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.902149999999999</c:v>
+                  <c:v>22.579199999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.07759999999999</c:v>
+                  <c:v>25.6328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54</c:v>
+                  <c:v>29.001727999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.157600000000002</c:v>
+                  <c:v>32.288647999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.550399999999996</c:v>
+                  <c:v>35.955200000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70.178399999999996</c:v>
+                  <c:v>39.391687999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="112129152"/>
-        <c:axId val="112131072"/>
+        <c:axId val="109048960"/>
+        <c:axId val="109050880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112129152"/>
+        <c:axId val="109048960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,14 +728,14 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112131072"/>
+        <c:crossAx val="109050880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112131072"/>
+        <c:axId val="109050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +752,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Power (W) [=I</a:t>
+                  <a:t>Power (W) [=V</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="30000"/>
@@ -747,16 +760,16 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>R*3]</a:t>
+                  <a:t>/R]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112129152"/>
+        <c:crossAx val="109048960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -770,576 +783,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5Ω</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76179131000556843</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2737346662472526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8420162865729499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4274443350981296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0765591169356719</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6399417577758024</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2278192960437657</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8254947932828607</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4109228418080413</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.030643746732185</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6087233260290148</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.1745554566119285</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.7575340153943237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3478610434050697</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.9063447047596362</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4452324481719341</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.055155394124947</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.616088545222292</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.120683432235628</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.66936913461906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.193</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.29199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.308</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.32300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.35099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.36299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.376</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.38700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.39700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.40799999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1Ω</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$3:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71770049463547114</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2271943611343723</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7979254712028525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3588586223002004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9393876913398134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5248157398649935</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0661529730200749</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6613789805163881</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.239458559813218</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.8175381391100478</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.3907187389213123</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9810457669320574</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5934182026278521</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.1788462511530309</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.7201834843081141</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.3497023482033903</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.9057365198151714</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.549952322167149</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.125582411721195</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.666919644876277</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.496</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6190000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9860000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.093</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1890000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5Ω</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$3:$S$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48989794855663571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0361341611972843</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5799208840951497</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1286065864785817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6895397375759296</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2651698271299763</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7991585910567092</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3380463344690083</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.903878465051922</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.4525641674353542</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.9963508903332201</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5842284286011825</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.1329141309846147</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.6913977923391794</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.2302855357514773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.7691732791637786</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.3276569405183416</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.8420497865028089</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.385836509400676</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.870835478471744</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.579</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.46</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.72</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls/>
-        <c:axId val="112178688"/>
-        <c:axId val="112180608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="112178688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Voltage (V)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112180608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="112180608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Current (A)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112178688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1349,13 +793,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1372,36 +816,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1695,1582 +1109,2101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S23"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <f>C3*SQRT(2)*SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="E3">
-        <f>B3^2*5*3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>H3*SQRT(2)*SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>G3^2*2.5*3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>M3*SQRT(2)*SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>L3^2*1*3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>R3*SQRT(2)*SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>Q3^2*0.5*3</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
+      <c r="E3" s="4">
+        <f>B3^2*5</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>C3^2/5</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I3*SQRT(2)*SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3^2*2.5</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>I3^2/2.5</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>O3*SQRT(2)*SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>N3^2*1</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>O3^2/1</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <f>U3*SQRT(2)*SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <f>T3^2*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <f>U3^2/0.5</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>T3*U3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="7">
         <v>200</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.311</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D23" si="0">C4*SQRT(2)*SQRT(3)</f>
         <v>0.76179131000556843</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E23" si="1">B4^2*5*3</f>
-        <v>3.1739999999999997E-2</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E23" si="1">B4^2*5</f>
+        <v>1.0579999999999999E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F23" si="2">C4^2/5</f>
+        <v>1.9344199999999999E-2</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
         <v>0.09</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I23" si="2">H4*SQRT(2)*SQRT(3)</f>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J23" si="3">I4*SQRT(2)*SQRT(3)</f>
         <v>0.71525100489268789</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J23" si="3">G4^2*2.5*3</f>
-        <v>6.0749999999999992E-2</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K23" si="4">H4^2*2.5</f>
+        <v>2.0249999999999997E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L23" si="5">I4^2/2.5</f>
+        <v>3.41056E-2</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>0.22</v>
       </c>
-      <c r="M4">
+      <c r="O4" s="4">
         <v>0.29299999999999998</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N23" si="4">M4*SQRT(2)*SQRT(3)</f>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P23" si="6">O4*SQRT(2)*SQRT(3)</f>
         <v>0.71770049463547114</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O23" si="5">L4^2*1*3</f>
-        <v>0.1452</v>
-      </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
+        <f t="shared" ref="Q4:Q23" si="7">N4^2*1</f>
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" ref="R4:R23" si="8">O4^2/1</f>
+        <v>8.5848999999999995E-2</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
         <v>0.38900000000000001</v>
       </c>
-      <c r="R4">
+      <c r="U4" s="4">
         <v>0.2</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S23" si="6">R4*SQRT(2)*SQRT(3)</f>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V23" si="9">U4*SQRT(2)*SQRT(3)</f>
         <v>0.48989794855663571</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T23" si="7">Q4^2*0.5*3</f>
-        <v>0.2269815</v>
-      </c>
-      <c r="W4">
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W23" si="10">T4^2*0.5</f>
+        <v>7.5660500000000006E-2</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X23" si="11">U4^2/0.5</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" ref="Y4:Y23" si="12">T4*U4</f>
+        <v>7.7800000000000008E-2</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4">
         <v>140</v>
       </c>
-      <c r="X4">
+      <c r="AB4" s="4">
         <v>0.246</v>
       </c>
-      <c r="Y4">
+      <c r="AC4" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
+    <row r="5" spans="1:29">
+      <c r="A5" s="7">
         <v>400</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.52</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>1.2737346662472526</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>0.10584000000000002</v>
-      </c>
-      <c r="G5">
+        <v>3.5280000000000006E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>5.4080000000000003E-2</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <v>0.18</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="4">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
         <v>1.2639367072761201</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0.24299999999999997</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="4">
+        <f t="shared" si="4"/>
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1065024</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="M5">
+      <c r="O5" s="4">
         <v>0.501</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
+      <c r="P5" s="4">
+        <f t="shared" si="6"/>
         <v>1.2271943611343723</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="5"/>
-        <v>0.59140800000000004</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
+        <f t="shared" si="7"/>
+        <v>0.19713600000000001</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="8"/>
+        <v>0.25100099999999997</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="R5">
+      <c r="U5" s="4">
         <v>0.42299999999999999</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="6"/>
+      <c r="V5" s="4">
+        <f t="shared" si="9"/>
         <v>1.0361341611972843</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="7"/>
-        <v>0.94803750000000009</v>
-      </c>
-      <c r="W5">
+      <c r="W5" s="4">
+        <f t="shared" si="10"/>
+        <v>0.31601250000000003</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.35785799999999995</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="12"/>
+        <v>0.336285</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4">
         <v>200</v>
       </c>
-      <c r="X5">
+      <c r="AB5" s="4">
         <v>0.38700000000000001</v>
       </c>
-      <c r="Y5">
+      <c r="AC5" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
+    <row r="6" spans="1:29">
+      <c r="A6" s="7">
         <v>600</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.114</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.752</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>1.8420162865729499</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.19494000000000003</v>
-      </c>
-      <c r="G6">
+        <v>6.498000000000001E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1131008</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>0.252</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="4">
         <v>0.72799999999999998</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
         <v>1.7832285327461537</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.47628000000000004</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.15876000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2119936</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>0.66500000000000004</v>
       </c>
-      <c r="M6">
+      <c r="O6" s="4">
         <v>0.73399999999999999</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
+      <c r="P6" s="4">
+        <f t="shared" si="6"/>
         <v>1.7979254712028525</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
-        <v>1.326675</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.44222500000000003</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="8"/>
+        <v>0.53875600000000001</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
         <v>1.1859999999999999</v>
       </c>
-      <c r="R6">
+      <c r="U6" s="4">
         <v>0.64500000000000002</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
+      <c r="V6" s="4">
+        <f t="shared" si="9"/>
         <v>1.5799208840951497</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="7"/>
-        <v>2.1098939999999997</v>
-      </c>
-      <c r="W6">
+      <c r="W6" s="4">
+        <f t="shared" si="10"/>
+        <v>0.70329799999999998</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="11"/>
+        <v>0.83205000000000007</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="12"/>
+        <v>0.76497000000000004</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4">
         <v>400</v>
       </c>
-      <c r="X6">
+      <c r="AB6" s="4">
         <v>0.80100000000000005</v>
       </c>
-      <c r="Y6">
+      <c r="AC6" s="4">
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7">
+    <row r="7" spans="1:29">
+      <c r="A7" s="7">
         <v>800</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>2.4274443350981296</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>0.30245999999999995</v>
-      </c>
-      <c r="G7">
+        <v>0.10081999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19641619999999999</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="4">
         <v>0.98799999999999999</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
         <v>2.4200958658697802</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0.77763000000000015</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25921000000000005</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.39045760000000002</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>0.86199999999999999</v>
       </c>
-      <c r="M7">
+      <c r="O7" s="4">
         <v>0.96299999999999997</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
+      <c r="P7" s="4">
+        <f t="shared" si="6"/>
         <v>2.3588586223002004</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>2.2291319999999999</v>
-      </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.74304399999999993</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="8"/>
+        <v>0.92736899999999989</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
         <v>1.579</v>
       </c>
-      <c r="R7">
+      <c r="U7" s="4">
         <v>0.86899999999999999</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
+      <c r="V7" s="4">
+        <f t="shared" si="9"/>
         <v>2.1286065864785817</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="7"/>
-        <v>3.7398614999999999</v>
-      </c>
-      <c r="W7">
+      <c r="W7" s="4">
+        <f t="shared" si="10"/>
+        <v>1.2466204999999999</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5103219999999999</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="12"/>
+        <v>1.3721509999999999</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4">
         <v>600</v>
       </c>
-      <c r="X7">
+      <c r="AB7" s="4">
         <v>1.2</v>
       </c>
-      <c r="Y7">
+      <c r="AC7" s="4">
         <v>0.188</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
+    <row r="8" spans="1:29">
+      <c r="A8" s="7">
         <v>1000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>0.17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1.256</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>3.0765591169356719</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>0.43350000000000005</v>
-      </c>
-      <c r="G8">
+        <v>0.14450000000000002</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.31550719999999999</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="4">
         <v>1.22</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
         <v>2.9883774861954775</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>1.09443</v>
-      </c>
-      <c r="L8">
+      <c r="K8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36480999999999997</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.59536</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
         <v>1.06</v>
       </c>
-      <c r="M8">
+      <c r="O8" s="4">
         <v>1.2</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
+      <c r="P8" s="4">
+        <f t="shared" si="6"/>
         <v>2.9393876913398134</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>3.3708000000000005</v>
-      </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1236000000000002</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="8"/>
+        <v>1.44</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
         <v>1.97</v>
       </c>
-      <c r="R8">
+      <c r="U8" s="4">
         <v>1.0980000000000001</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
+      <c r="V8" s="4">
+        <f t="shared" si="9"/>
         <v>2.6895397375759296</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="7"/>
-        <v>5.8213499999999998</v>
-      </c>
-      <c r="W8">
+      <c r="W8" s="4">
+        <f t="shared" si="10"/>
+        <v>1.94045</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="11"/>
+        <v>2.4112080000000002</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="12"/>
+        <v>2.1630600000000002</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4">
         <v>800</v>
       </c>
-      <c r="X8">
+      <c r="AB8" s="4">
         <v>1.67</v>
       </c>
-      <c r="Y8">
+      <c r="AC8" s="4">
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9">
+    <row r="9" spans="1:29">
+      <c r="A9" s="7">
         <v>1200</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>0.193</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1.486</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>3.6399417577758024</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>0.55873500000000009</v>
-      </c>
-      <c r="G9">
+        <v>0.18624500000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.44163920000000001</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>0.439</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="4">
         <v>1.4570000000000001</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
         <v>3.5689065552350909</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>1.4454075</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.48180250000000002</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84913960000000022</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1.2490000000000001</v>
       </c>
-      <c r="M9">
+      <c r="O9" s="4">
         <v>1.4390000000000001</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
+      <c r="P9" s="4">
+        <f t="shared" si="6"/>
         <v>3.5248157398649935</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
-        <v>4.680003000000001</v>
-      </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
+        <f t="shared" si="7"/>
+        <v>1.5600010000000002</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="8"/>
+        <v>2.0707210000000003</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
         <v>2.3530000000000002</v>
       </c>
-      <c r="R9">
+      <c r="U9" s="4">
         <v>1.333</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="6"/>
+      <c r="V9" s="4">
+        <f t="shared" si="9"/>
         <v>3.2651698271299763</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="7"/>
-        <v>8.3049135000000014</v>
-      </c>
-      <c r="W9">
+      <c r="W9" s="4">
+        <f t="shared" si="10"/>
+        <v>2.7683045000000006</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="11"/>
+        <v>3.5537779999999999</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="12"/>
+        <v>3.136549</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4">
         <v>1000</v>
       </c>
-      <c r="X9">
+      <c r="AB9" s="4">
         <v>2.06</v>
       </c>
-      <c r="Y9">
+      <c r="AC9" s="4">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10">
+    <row r="10" spans="1:29">
+      <c r="A10" s="7">
         <v>1400</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0.214</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1.726</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>4.2278192960437657</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>0.68694</v>
-      </c>
-      <c r="G10">
+        <v>0.22897999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59581519999999999</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>0.496</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="4">
         <v>1.708</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
         <v>4.1837284806736683</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>1.8451199999999996</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.61503999999999992</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1669056</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>1.4219999999999999</v>
       </c>
-      <c r="M10">
+      <c r="O10" s="4">
         <v>1.66</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
+      <c r="P10" s="4">
+        <f t="shared" si="6"/>
         <v>4.0661529730200749</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
-        <v>6.0662520000000004</v>
-      </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
+        <f t="shared" si="7"/>
+        <v>2.022084</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
         <v>2.7080000000000002</v>
       </c>
-      <c r="R10">
+      <c r="U10" s="4">
         <v>1.5509999999999999</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="6"/>
+      <c r="V10" s="4">
+        <f t="shared" si="9"/>
         <v>3.7991585910567092</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="7"/>
-        <v>10.999896000000001</v>
-      </c>
-      <c r="W10">
+      <c r="W10" s="4">
+        <f t="shared" si="10"/>
+        <v>3.6666320000000003</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="11"/>
+        <v>4.8112019999999998</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="12"/>
+        <v>4.2001080000000002</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4">
         <v>1200</v>
       </c>
-      <c r="X10">
+      <c r="AB10" s="4">
         <v>2.5049999999999999</v>
       </c>
-      <c r="Y10">
+      <c r="AC10" s="4">
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11">
+    <row r="11" spans="1:29">
+      <c r="A11" s="7">
         <v>1600</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.23599999999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>1.97</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>4.8254947932828607</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.83543999999999985</v>
-      </c>
-      <c r="G11">
+        <v>0.27847999999999995</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77617999999999998</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>0.54200000000000004</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="4">
         <v>1.925</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
         <v>4.7152677548576181</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>2.20323</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73441000000000001</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4822500000000001</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>1.599</v>
       </c>
-      <c r="M11">
+      <c r="O11" s="4">
         <v>1.903</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
+      <c r="P11" s="4">
+        <f t="shared" si="6"/>
         <v>4.6613789805163881</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="5"/>
-        <v>7.6704030000000003</v>
-      </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5568010000000001</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="8"/>
+        <v>3.6214089999999999</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
         <v>3.06</v>
       </c>
-      <c r="R11">
+      <c r="U11" s="4">
         <v>1.7709999999999999</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="6"/>
+      <c r="V11" s="4">
+        <f t="shared" si="9"/>
         <v>4.3380463344690083</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="7"/>
-        <v>14.045400000000001</v>
-      </c>
-      <c r="W11">
+      <c r="W11" s="4">
+        <f t="shared" si="10"/>
+        <v>4.6818</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="11"/>
+        <v>6.2728819999999992</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="12"/>
+        <v>5.4192599999999995</v>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4">
         <v>1400</v>
       </c>
-      <c r="X11">
+      <c r="AB11" s="4">
         <v>2.95</v>
       </c>
-      <c r="Y11">
+      <c r="AC11" s="4">
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12">
+    <row r="12" spans="1:29">
+      <c r="A12" s="7">
         <v>1800</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.255</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>2.2090000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>5.4109228418080413</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>0.97537499999999999</v>
-      </c>
-      <c r="G12">
+        <v>0.325125</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.97593620000000014</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>0.59199999999999997</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="4">
         <v>2.1779999999999999</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
         <v>5.3349886597817617</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>2.6284799999999997</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.87615999999999983</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8974736000000001</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>1.762</v>
       </c>
-      <c r="M12">
+      <c r="O12" s="4">
         <v>2.1389999999999998</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
+      <c r="P12" s="4">
+        <f t="shared" si="6"/>
         <v>5.239458559813218</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
-        <v>9.3139319999999994</v>
-      </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
+        <f t="shared" si="7"/>
+        <v>3.104644</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5753209999999989</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4">
         <v>3.4180000000000001</v>
       </c>
-      <c r="R12">
+      <c r="U12" s="4">
         <v>2.0019999999999998</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
+      <c r="V12" s="4">
+        <f t="shared" si="9"/>
         <v>4.903878465051922</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="7"/>
-        <v>17.524086</v>
-      </c>
-      <c r="W12">
+      <c r="W12" s="4">
+        <f t="shared" si="10"/>
+        <v>5.8413620000000002</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="11"/>
+        <v>8.0160079999999976</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="12"/>
+        <v>6.8428359999999993</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4">
         <v>1600</v>
       </c>
-      <c r="X12">
+      <c r="AB12" s="4">
         <v>3.38</v>
       </c>
-      <c r="Y12">
+      <c r="AC12" s="4">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13">
+    <row r="13" spans="1:29">
+      <c r="A13" s="7">
         <v>2000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>2.4620000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>6.030643746732185</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>1.1343750000000001</v>
-      </c>
-      <c r="G13">
+        <v>0.37812500000000004</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2122888000000001</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <v>0.63300000000000001</v>
       </c>
-      <c r="H13">
+      <c r="I13" s="4">
         <v>2.4</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
         <v>5.8787753826796267</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>3.0051675000000002</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0017225000000001</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1.9219999999999999</v>
       </c>
-      <c r="M13">
+      <c r="O13" s="4">
         <v>2.375</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
+      <c r="P13" s="4">
+        <f t="shared" si="6"/>
         <v>5.8175381391100478</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="5"/>
-        <v>11.082251999999999</v>
-      </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
+        <f t="shared" si="7"/>
+        <v>3.6940839999999997</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="8"/>
+        <v>5.640625</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4">
         <v>3.7589999999999999</v>
       </c>
-      <c r="R13">
+      <c r="U13" s="4">
         <v>2.226</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="6"/>
+      <c r="V13" s="4">
+        <f t="shared" si="9"/>
         <v>5.4525641674353542</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="7"/>
-        <v>21.195121499999999</v>
-      </c>
-      <c r="W13">
+      <c r="W13" s="4">
+        <f t="shared" si="10"/>
+        <v>7.0650404999999994</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="11"/>
+        <v>9.9101520000000001</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="12"/>
+        <v>8.3675339999999991</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4">
         <v>1800</v>
       </c>
-      <c r="X13">
+      <c r="AB13" s="4">
         <v>3.78</v>
       </c>
-      <c r="Y13">
+      <c r="AC13" s="4">
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14">
+    <row r="14" spans="1:29">
+      <c r="A14" s="7">
         <v>2200</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>2.698</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>6.6087233260290148</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>1.2789599999999999</v>
-      </c>
-      <c r="G14">
+        <v>0.42631999999999998</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4558408</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="4">
         <v>2.6349999999999998</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
         <v>6.4544054722336739</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>3.4171875000000003</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1390625000000001</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7772899999999998</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>2.0750000000000002</v>
       </c>
-      <c r="M14">
+      <c r="O14" s="4">
         <v>2.609</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
+      <c r="P14" s="4">
+        <f t="shared" si="6"/>
         <v>6.3907187389213123</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="5"/>
-        <v>12.916875000000003</v>
-      </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
+        <f t="shared" si="7"/>
+        <v>4.3056250000000009</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8068809999999997</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4">
         <v>4.0919999999999996</v>
       </c>
-      <c r="R14">
+      <c r="U14" s="4">
         <v>2.448</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
+      <c r="V14" s="4">
+        <f t="shared" si="9"/>
         <v>5.9963508903332201</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="7"/>
-        <v>25.116695999999997</v>
-      </c>
-      <c r="W14">
+      <c r="W14" s="4">
+        <f t="shared" si="10"/>
+        <v>8.3722319999999986</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="11"/>
+        <v>11.985408</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="12"/>
+        <v>10.017215999999999</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4">
         <v>2000</v>
       </c>
-      <c r="X14">
+      <c r="AB14" s="4">
         <v>4.26</v>
       </c>
-      <c r="Y14">
+      <c r="AC14" s="4">
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15">
+    <row r="15" spans="1:29">
+      <c r="A15" s="7">
         <v>2400</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>0.308</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>2.9289999999999998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>7.1745554566119285</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>1.42296</v>
-      </c>
-      <c r="G15">
+        <v>0.47432000000000002</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7158081999999997</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H15">
+      <c r="I15" s="4">
         <v>2.8439999999999999</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
         <v>6.9663488284753576</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>3.7914075</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2638024999999999</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="5"/>
+        <v>3.2353344000000002</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>2.2149999999999999</v>
       </c>
-      <c r="M15">
+      <c r="O15" s="4">
         <v>2.85</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
+      <c r="P15" s="4">
+        <f t="shared" si="6"/>
         <v>6.9810457669320574</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="5"/>
-        <v>14.718674999999998</v>
-      </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
+        <f t="shared" si="7"/>
+        <v>4.9062249999999992</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="8"/>
+        <v>8.1225000000000005</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4">
         <v>4.46</v>
       </c>
-      <c r="R15">
+      <c r="U15" s="4">
         <v>2.6880000000000002</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
+      <c r="V15" s="4">
+        <f t="shared" si="9"/>
         <v>6.5842284286011825</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="7"/>
-        <v>29.837400000000002</v>
-      </c>
-      <c r="W15">
+      <c r="W15" s="4">
+        <f t="shared" si="10"/>
+        <v>9.9458000000000002</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="11"/>
+        <v>14.450688000000001</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="12"/>
+        <v>11.988480000000001</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4">
         <v>2200</v>
       </c>
-      <c r="X15">
+      <c r="AB15" s="4">
         <v>4.6900000000000004</v>
       </c>
-      <c r="Y15">
+      <c r="AC15" s="4">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16">
+    <row r="16" spans="1:29">
+      <c r="A16" s="7">
         <v>2600</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>3.1669999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>7.7575340153943237</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>1.5649350000000002</v>
-      </c>
-      <c r="G16">
+        <v>0.52164500000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0059777999999997</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <v>0.748</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="4">
         <v>3.0859999999999999</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
         <v>7.5591253462288881</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>4.1962799999999998</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.39876</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="5"/>
+        <v>3.8093583999999998</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>2.3650000000000002</v>
       </c>
-      <c r="M16">
+      <c r="O16" s="4">
         <v>3.1</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
+      <c r="P16" s="4">
+        <f t="shared" si="6"/>
         <v>7.5934182026278521</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
-        <v>16.779675000000005</v>
-      </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
+        <f t="shared" si="7"/>
+        <v>5.5932250000000012</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="8"/>
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4">
         <v>4.78</v>
       </c>
-      <c r="R16">
+      <c r="U16" s="4">
         <v>2.9119999999999999</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="6"/>
+      <c r="V16" s="4">
+        <f t="shared" si="9"/>
         <v>7.1329141309846147</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="7"/>
-        <v>34.272600000000004</v>
-      </c>
-      <c r="W16">
+      <c r="W16" s="4">
+        <f t="shared" si="10"/>
+        <v>11.424200000000001</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="11"/>
+        <v>16.959488</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="12"/>
+        <v>13.919360000000001</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4">
         <v>2400</v>
       </c>
-      <c r="X16">
+      <c r="AB16" s="4">
         <v>5.1100000000000003</v>
       </c>
-      <c r="Y16">
+      <c r="AC16" s="4">
         <v>0.501</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17">
+    <row r="17" spans="1:29">
+      <c r="A17" s="7">
         <v>2800</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.33700000000000002</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>3.4079999999999999</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>8.3478610434050697</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>1.703535</v>
-      </c>
-      <c r="G17">
+        <v>0.56784500000000004</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3228928</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
         <v>0.78</v>
       </c>
-      <c r="H17">
+      <c r="I17" s="4">
         <v>3.306</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
         <v>8.0980130896411868</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>4.5630000000000006</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5210000000000001</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="5"/>
+        <v>4.3718544000000001</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>2.496</v>
       </c>
-      <c r="M17">
+      <c r="O17" s="4">
         <v>3.339</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
+      <c r="P17" s="4">
+        <f t="shared" si="6"/>
         <v>8.1788462511530309</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="5"/>
-        <v>18.690048000000001</v>
-      </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
+        <f t="shared" si="7"/>
+        <v>6.230016</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="8"/>
+        <v>11.148921</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R17">
+      <c r="U17" s="4">
         <v>3.14</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
+      <c r="V17" s="4">
+        <f t="shared" si="9"/>
         <v>7.6913977923391794</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="7"/>
-        <v>39.015000000000001</v>
-      </c>
-      <c r="W17">
+      <c r="W17" s="4">
+        <f t="shared" si="10"/>
+        <v>13.004999999999999</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="11"/>
+        <v>19.719200000000001</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="12"/>
+        <v>16.013999999999999</v>
+      </c>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4">
         <v>2600</v>
       </c>
-      <c r="X17">
+      <c r="AB17" s="4">
         <v>5.57</v>
       </c>
-      <c r="Y17">
+      <c r="AC17" s="4">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18">
+    <row r="18" spans="1:29">
+      <c r="A18" s="7">
         <v>3000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>0.35099999999999998</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>3.6360000000000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>8.9063447047596362</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>1.8480149999999997</v>
-      </c>
-      <c r="G18">
+        <v>0.61600499999999991</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6440992000000003</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H18">
+      <c r="I18" s="4">
         <v>3.5390000000000001</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
         <v>8.6687441997096677</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>4.9450799999999999</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="4">
+        <f t="shared" si="4"/>
+        <v>1.64836</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0098084000000007</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>2.6190000000000002</v>
       </c>
-      <c r="M18">
+      <c r="O18" s="4">
         <v>3.56</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="4"/>
+      <c r="P18" s="4">
+        <f t="shared" si="6"/>
         <v>8.7201834843081141</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="5"/>
-        <v>20.577483000000004</v>
-      </c>
-      <c r="Q18">
+      <c r="Q18" s="4">
+        <f t="shared" si="7"/>
+        <v>6.8591610000000012</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="8"/>
+        <v>12.6736</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4">
         <v>5.41</v>
       </c>
-      <c r="R18">
+      <c r="U18" s="4">
         <v>3.36</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
+      <c r="V18" s="4">
+        <f t="shared" si="9"/>
         <v>8.2302855357514773</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="7"/>
-        <v>43.902149999999999</v>
-      </c>
-      <c r="W18">
+      <c r="W18" s="4">
+        <f t="shared" si="10"/>
+        <v>14.63405</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="11"/>
+        <v>22.579199999999997</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="12"/>
+        <v>18.177599999999998</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4">
         <v>2800</v>
       </c>
-      <c r="X18">
+      <c r="AB18" s="4">
         <v>5.98</v>
       </c>
-      <c r="Y18">
+      <c r="AC18" s="4">
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19">
+    <row r="19" spans="1:29">
+      <c r="A19" s="7">
         <v>3200</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>0.36299999999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>3.8559999999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>9.4452324481719341</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>1.9765350000000002</v>
-      </c>
-      <c r="G19">
+        <v>0.65884500000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9737471999999996</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H19">
+      <c r="I19" s="4">
         <v>3.7469999999999999</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
+      <c r="J19" s="4">
+        <f t="shared" si="3"/>
         <v>9.1782380662085679</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>5.2668299999999997</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7556099999999999</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6160036</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>2.75</v>
       </c>
-      <c r="M19">
+      <c r="O19" s="4">
         <v>3.8170000000000002</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="4"/>
+      <c r="P19" s="4">
+        <f t="shared" si="6"/>
         <v>9.3497023482033903</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="5"/>
-        <v>22.6875</v>
-      </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
+        <f t="shared" si="7"/>
+        <v>7.5625</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="8"/>
+        <v>14.569489000000001</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4">
         <v>5.72</v>
       </c>
-      <c r="R19">
+      <c r="U19" s="4">
         <v>3.58</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="6"/>
+      <c r="V19" s="4">
+        <f t="shared" si="9"/>
         <v>8.7691732791637786</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="7"/>
-        <v>49.07759999999999</v>
-      </c>
-      <c r="W19">
+      <c r="W19" s="4">
+        <f t="shared" si="10"/>
+        <v>16.359199999999998</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="11"/>
+        <v>25.6328</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="12"/>
+        <v>20.477599999999999</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4">
         <v>3000</v>
       </c>
-      <c r="X19">
+      <c r="AB19" s="4">
         <v>6.42</v>
       </c>
-      <c r="Y19">
+      <c r="AC19" s="4">
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20">
+    <row r="20" spans="1:29">
+      <c r="A20" s="7">
         <v>3400</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>0.376</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>4.1050000000000004</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>10.055155394124947</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="G20">
+        <v>0.70687999999999995</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3702050000000008</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
         <v>0.86599999999999999</v>
       </c>
-      <c r="H20">
+      <c r="I20" s="4">
         <v>3.9860000000000002</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
         <v>9.7636661147337485</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>5.6246700000000001</v>
-      </c>
-      <c r="L20">
+      <c r="K20" s="4">
+        <f t="shared" si="4"/>
+        <v>1.8748899999999999</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3552784000000013</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
         <v>2.86</v>
       </c>
-      <c r="M20">
+      <c r="O20" s="4">
         <v>4.0439999999999996</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="4"/>
+      <c r="P20" s="4">
+        <f t="shared" si="6"/>
         <v>9.9057365198151714</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="5"/>
-        <v>24.538799999999995</v>
-      </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
+        <f t="shared" si="7"/>
+        <v>8.1795999999999989</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="8"/>
+        <v>16.353935999999997</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4">
         <v>6</v>
       </c>
-      <c r="R20">
+      <c r="U20" s="4">
         <v>3.8079999999999998</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="6"/>
+      <c r="V20" s="4">
+        <f t="shared" si="9"/>
         <v>9.3276569405183416</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="W20">
+      <c r="W20" s="4">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="11"/>
+        <v>29.001727999999996</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="12"/>
+        <v>22.847999999999999</v>
+      </c>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4">
         <v>3200</v>
       </c>
-      <c r="X20">
+      <c r="AB20" s="4">
         <v>6.86</v>
       </c>
-      <c r="Y20">
+      <c r="AC20" s="4">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21">
+    <row r="21" spans="1:29">
+      <c r="A21" s="7">
         <v>3600</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.38700000000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>4.3339999999999996</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>10.616088545222292</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>2.2465350000000002</v>
-      </c>
-      <c r="G21">
+        <v>0.74884500000000009</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7567111999999994</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>0.89</v>
       </c>
-      <c r="H21">
+      <c r="I21" s="4">
         <v>4.2039999999999997</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
+      <c r="J21" s="4">
+        <f t="shared" si="3"/>
         <v>10.297654878660481</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>5.9407500000000004</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9802500000000001</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="5"/>
+        <v>7.0694463999999995</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
         <v>2.9860000000000002</v>
       </c>
-      <c r="M21">
+      <c r="O21" s="4">
         <v>4.3070000000000004</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="4"/>
+      <c r="P21" s="4">
+        <f t="shared" si="6"/>
         <v>10.549952322167149</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="5"/>
-        <v>26.748588000000005</v>
-      </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
+        <f t="shared" si="7"/>
+        <v>8.9161960000000011</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="8"/>
+        <v>18.550249000000004</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4">
         <v>6.28</v>
       </c>
-      <c r="R21">
+      <c r="U21" s="4">
         <v>4.0179999999999998</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="6"/>
+      <c r="V21" s="4">
+        <f t="shared" si="9"/>
         <v>9.8420497865028089</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="7"/>
-        <v>59.157600000000002</v>
-      </c>
-      <c r="W21">
+      <c r="W21" s="4">
+        <f t="shared" si="10"/>
+        <v>19.719200000000001</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="11"/>
+        <v>32.288647999999995</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="12"/>
+        <v>25.233039999999999</v>
+      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4">
         <v>3400</v>
       </c>
-      <c r="X21">
+      <c r="AB21" s="4">
         <v>7.28</v>
       </c>
-      <c r="Y21">
+      <c r="AC21" s="4">
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22">
+    <row r="22" spans="1:29">
+      <c r="A22" s="7">
         <v>3800</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>4.54</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>11.120683432235628</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>2.3641350000000001</v>
-      </c>
-      <c r="G22">
+        <v>0.78804500000000011</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1223200000000002</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H22">
+      <c r="I22" s="4">
         <v>4.4340000000000002</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
         <v>10.861037519500613</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>6.2654700000000005</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0884900000000002</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="5"/>
+        <v>7.8641424000000004</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
         <v>3.093</v>
       </c>
-      <c r="M22">
+      <c r="O22" s="4">
         <v>4.5419999999999998</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
+      <c r="P22" s="4">
+        <f t="shared" si="6"/>
         <v>11.125582411721195</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="5"/>
-        <v>28.699947000000002</v>
-      </c>
-      <c r="Q22">
+      <c r="Q22" s="4">
+        <f t="shared" si="7"/>
+        <v>9.566649</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="8"/>
+        <v>20.629763999999998</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
         <v>6.56</v>
       </c>
-      <c r="R22">
+      <c r="U22" s="4">
         <v>4.24</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
+      <c r="V22" s="4">
+        <f t="shared" si="9"/>
         <v>10.385836509400676</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="7"/>
-        <v>64.550399999999996</v>
-      </c>
-      <c r="W22">
+      <c r="W22" s="4">
+        <f t="shared" si="10"/>
+        <v>21.516799999999996</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="11"/>
+        <v>35.955200000000005</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="12"/>
+        <v>27.814399999999999</v>
+      </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4">
         <v>3600</v>
       </c>
-      <c r="X22">
+      <c r="AB22" s="4">
         <v>7.72</v>
       </c>
-      <c r="Y22">
+      <c r="AC22" s="4">
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23">
+    <row r="23" spans="1:29">
+      <c r="A23" s="7">
         <v>4000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>4.7640000000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>11.66936913461906</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>2.4969599999999996</v>
-      </c>
-      <c r="G23">
+        <v>0.83231999999999984</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5391392000000002</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <v>0.93400000000000005</v>
       </c>
-      <c r="H23">
+      <c r="I23" s="4">
         <v>4.6340000000000003</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
+      <c r="J23" s="4">
+        <f t="shared" si="3"/>
         <v>11.35093546805725</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>6.5426700000000011</v>
-      </c>
-      <c r="L23">
+      <c r="K23" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1808900000000002</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="5"/>
+        <v>8.5895824000000012</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
         <v>3.1890000000000001</v>
       </c>
-      <c r="M23">
+      <c r="O23" s="4">
         <v>4.7629999999999999</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
+      <c r="P23" s="4">
+        <f t="shared" si="6"/>
         <v>11.666919644876277</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="5"/>
-        <v>30.509163000000001</v>
-      </c>
-      <c r="Q23">
+      <c r="Q23" s="4">
+        <f t="shared" si="7"/>
+        <v>10.169721000000001</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="8"/>
+        <v>22.686169</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4">
         <v>6.84</v>
       </c>
-      <c r="R23">
+      <c r="U23" s="4">
         <v>4.4379999999999997</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="6"/>
+      <c r="V23" s="4">
+        <f t="shared" si="9"/>
         <v>10.870835478471744</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="7"/>
-        <v>70.178399999999996</v>
-      </c>
-      <c r="W23">
+      <c r="W23" s="4">
+        <f t="shared" si="10"/>
+        <v>23.392799999999998</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="11"/>
+        <v>39.391687999999995</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="12"/>
+        <v>30.355919999999998</v>
+      </c>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4">
         <v>3800</v>
       </c>
-      <c r="X23">
+      <c r="AB23" s="4">
         <v>8.15</v>
       </c>
-      <c r="Y23">
+      <c r="AC23" s="4">
         <v>0.63</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
-      <c r="W24">
+    <row r="24" spans="1:29">
+      <c r="AA24">
         <v>4000</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>8.58</v>
       </c>
-      <c r="Y24">
+      <c r="AC24">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="W25">
+    <row r="25" spans="1:29">
+      <c r="AA25">
         <v>4200</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>9.02</v>
       </c>
-      <c r="Y25">
+      <c r="AC25">
         <v>0.65800000000000003</v>
       </c>
     </row>
@@ -3285,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3299,7 +3232,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3307,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3333,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f>C3/2*SQRT(2)</f>
+        <f>C3/2*SQRT(2)/SQRT(3)</f>
         <v>0</v>
       </c>
       <c r="E3">
@@ -3342,6 +3275,7 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -3354,19 +3288,19 @@
         <v>2.88</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">C4/2*SQRT(2)</f>
-        <v>2.0364675298172568</v>
+        <f t="shared" ref="D4:D11" si="0">C4/2*SQRT(2)/SQRT(3)</f>
+        <v>1.1757550765359255</v>
       </c>
       <c r="E4">
         <f>D4/B4</f>
-        <v>0.10182337649086284</v>
+        <v>5.8787753826796275E-2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" s="5">
         <f>((E4^2)-E17^2)/(A4/60*2*PI())</f>
-        <v>1.9801421399721249E-4</v>
+        <v>6.6004737999070831E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3381,18 +3315,18 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>4.4406305858515189</v>
+        <v>2.5637992641130603</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E11" si="1">D5/B5</f>
-        <v>0.12300915750281215</v>
+        <v>7.1019370197037676E-2</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" ref="G5:G11" si="2">((E5^2)-E18^2)/(A5/60*2*PI())</f>
-        <v>1.4449282097978234E-4</v>
+        <v>4.8164273659927457E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3407,18 +3341,18 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>6.5831641328467585</v>
+        <v>3.8007915842185653</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.15099000304694399</v>
+        <v>8.7174118904095529E-2</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="2"/>
-        <v>1.4513645487466785E-4</v>
+        <v>4.8378818291555958E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3433,18 +3367,18 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>8.909545442950499</v>
+        <v>5.1439284598446742</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.16810463099906603</v>
+        <v>9.7055253959333482E-2</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>1.3492758329620492E-4</v>
+        <v>4.4975861098734976E-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3459,18 +3393,18 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>11.172287142747452</v>
+        <v>6.4503229893290364</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.1801981797217331</v>
+        <v>0.10403746756982317</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>1.2403155044784839E-4</v>
+        <v>4.1343850149282793E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3485,18 +3419,18 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>13.435028842544403</v>
+        <v>7.7567175188133977</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.21190897227988018</v>
+        <v>0.12234570218948577</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>1.4293836752324687E-4</v>
+        <v>4.7646122507748958E-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3511,18 +3445,18 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>15.980613254815976</v>
+        <v>9.2264113644833063</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.24103489072120629</v>
+        <v>0.13916155904198049</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>1.5851237150211716E-4</v>
+        <v>5.2837457167372388E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3537,33 +3471,33 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>18.243354954612929</v>
+        <v>10.532805893967668</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.26439644861757866</v>
+        <v>0.15264936078214011</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="2"/>
-        <v>1.6688704524210653E-4</v>
+        <v>5.5629015080702189E-5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <f>AVERAGE(G4:G11)</f>
-        <v>1.5186755098289833E-4</v>
+        <v>5.062251699429944E-5</v>
       </c>
     </row>
   </sheetData>
@@ -3574,52 +3508,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3633,6 +3579,10 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3*SQRT(2*3)</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -3647,8 +3597,20 @@
         <f>A3/332</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <f>E3^2*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f>D3^2/0.5</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>500</v>
       </c>
@@ -3664,20 +3626,36 @@
       <c r="E4">
         <v>0.90200000000000002</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">E4*SQRT(2*3)</f>
+        <v>2.2094397479904266</v>
+      </c>
       <c r="G4">
-        <f t="shared" ref="G4:G11" si="0">C4/2</f>
+        <f t="shared" ref="G4:G11" si="1">C4/2</f>
         <v>0.84</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="1">G4*SQRT(3)</f>
+        <f t="shared" ref="H4:H11" si="2">G4*SQRT(3)</f>
         <v>1.4549226783578568</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I11" si="2">A4/332</f>
+        <f t="shared" ref="I4:I11" si="3">A4/332</f>
         <v>1.5060240963855422</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="4">E4^2*0.5</f>
+        <v>0.406802</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L11" si="5">D4^2/0.5</f>
+        <v>0.51612800000000003</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M11" si="6">D4*E4</f>
+        <v>0.45821600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -3693,20 +3671,36 @@
       <c r="E5">
         <v>1.83</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.4825662292932158</v>
+      </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.72</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9791273890184686</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0120481927710845</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>1.6744500000000002</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="5"/>
+        <v>2.88</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>2.1960000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -3722,20 +3716,36 @@
       <c r="E6">
         <v>2.6579999999999999</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>6.5107437363176865</v>
+      </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5033320996790804</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5180722891566267</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>3.5324819999999999</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2658000000000005</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>4.7046599999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -3751,20 +3761,36 @@
       <c r="E7">
         <v>3.4569999999999999</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8.4678860408014458</v>
+      </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.48</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0275368103396927</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.024096385542169</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>5.9754244999999999</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="5"/>
+        <v>11.328799999999999</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>8.2276599999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -3780,20 +3806,36 @@
       <c r="E8">
         <v>4.2699999999999996</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10.459321201684169</v>
+      </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6210235533030604</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5301204819277112</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>9.1164499999999986</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>12.809999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -3809,20 +3851,36 @@
       <c r="E9">
         <v>5</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>12.24744871391589</v>
+      </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1798692801150494</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0361445783132535</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="5"/>
+        <v>26.499200000000002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -3838,20 +3896,36 @@
       <c r="E10">
         <v>5.71</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>13.986586431291945</v>
+      </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.565509926170151</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.542168674698795</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>16.302050000000001</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="5"/>
+        <v>35.955200000000005</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>24.2104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -3867,90 +3941,88 @@
       <c r="E11">
         <v>6.33</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>15.505270071817517</v>
+      </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.124355652982141</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.048192771084338</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>20.03445</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="5"/>
+        <v>46.851199999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>30.6372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14">
         <f>A4/B4</f>
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13">
       <c r="B15">
-        <f t="shared" ref="B15:B21" si="3">A5/B5</f>
+        <f t="shared" ref="B15:B21" si="7">A5/B5</f>
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.4745762711864412</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:8">
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.695652173913043</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <f>7*SQRT(3)</f>
-        <v>12.124355652982141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.6505190311418687</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <f>4000/332</f>
-        <v>12.048192771084338</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.6206896551724146</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:8">
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.5995085995085994</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:8">
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.639308855291576</v>
       </c>
       <c r="H21">
         <f>4000*7/60</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="K21">
-        <f>4.84^2/0.5</f>
-        <v>46.851199999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22">
         <f>AVERAGE(B14:B21)</f>
         <v>8.6833519813795093</v>
@@ -3973,7 +4045,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3981,7 +4053,7 @@
         <v>36.61</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3989,7 +4061,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3997,7 +4069,7 @@
         <v>37.47</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4006,7 +4078,7 @@
         <v>37.693333333333335</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10395" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="11220" windowHeight="4890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$23</c:f>
+              <c:f>Sheet1!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -245,64 +245,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76179131000556843</c:v>
+                  <c:v>0.311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2737346662472526</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8420162865729499</c:v>
+                  <c:v>0.752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4274443350981296</c:v>
+                  <c:v>0.99099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0765591169356719</c:v>
+                  <c:v>1.256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6399417577758024</c:v>
+                  <c:v>1.486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2278192960437657</c:v>
+                  <c:v>1.726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8254947932828607</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4109228418080413</c:v>
+                  <c:v>2.2090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.030643746732185</c:v>
+                  <c:v>2.4620000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6087233260290148</c:v>
+                  <c:v>2.698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1745554566119285</c:v>
+                  <c:v>2.9289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7575340153943237</c:v>
+                  <c:v>3.1669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3478610434050697</c:v>
+                  <c:v>3.4079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9063447047596362</c:v>
+                  <c:v>3.6360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4452324481719341</c:v>
+                  <c:v>3.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.055155394124947</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.616088545222292</c:v>
+                  <c:v>4.3339999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.120683432235628</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.66936913461906</c:v>
+                  <c:v>4.7640000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,7 +397,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$23</c:f>
+              <c:f>Sheet1!$O$3:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -405,64 +405,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71770049463547114</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2271943611343723</c:v>
+                  <c:v>0.501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7979254712028525</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3588586223002004</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9393876913398134</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5248157398649935</c:v>
+                  <c:v>1.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0661529730200749</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6613789805163881</c:v>
+                  <c:v>1.903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.239458559813218</c:v>
+                  <c:v>2.1389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8175381391100478</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3907187389213123</c:v>
+                  <c:v>2.609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9810457669320574</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5934182026278521</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1788462511530309</c:v>
+                  <c:v>3.339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7201834843081141</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3497023482033903</c:v>
+                  <c:v>3.8170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.9057365198151714</c:v>
+                  <c:v>4.0439999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.549952322167149</c:v>
+                  <c:v>4.3070000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.125582411721195</c:v>
+                  <c:v>4.5419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.666919644876277</c:v>
+                  <c:v>4.7629999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,7 +557,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$23</c:f>
+              <c:f>Sheet1!$U$3:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -565,64 +565,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48989794855663571</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0361341611972843</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5799208840951497</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1286065864785817</c:v>
+                  <c:v>0.86899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6895397375759296</c:v>
+                  <c:v>1.0980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2651698271299763</c:v>
+                  <c:v>1.333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7991585910567092</c:v>
+                  <c:v>1.5509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3380463344690083</c:v>
+                  <c:v>1.7709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.903878465051922</c:v>
+                  <c:v>2.0019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4525641674353542</c:v>
+                  <c:v>2.226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9963508903332201</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5842284286011825</c:v>
+                  <c:v>2.6880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1329141309846147</c:v>
+                  <c:v>2.9119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6913977923391794</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2302855357514773</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.7691732791637786</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3276569405183416</c:v>
+                  <c:v>3.8079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8420497865028089</c:v>
+                  <c:v>4.0179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.385836509400676</c:v>
+                  <c:v>4.24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.870835478471744</c:v>
+                  <c:v>4.4379999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,11 +701,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="109048960"/>
-        <c:axId val="109050880"/>
+        <c:axId val="109026304"/>
+        <c:axId val="109585920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109048960"/>
+        <c:axId val="109026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,12 +730,12 @@
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109050880"/>
+        <c:crossAx val="109585920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109050880"/>
+        <c:axId val="109585920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +769,7 @@
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109048960"/>
+        <c:crossAx val="109026304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -783,7 +783,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U23"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3219,7 +3219,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3299,8 +3299,8 @@
         <v>2</v>
       </c>
       <c r="G4" s="5">
-        <f>((E4^2)-E17^2)/(A4/60*2*PI())</f>
-        <v>6.6004737999070831E-5</v>
+        <f>SQRT((E4^2)-E16^2)/(A4/60*2*PI())</f>
+        <v>8.6308738068298764E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3325,8 +3325,8 @@
         <v>3</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G11" si="2">((E5^2)-E18^2)/(A5/60*2*PI())</f>
-        <v>4.8164273659927457E-5</v>
+        <f>SQRT((E5^2)-E16^2)/(A5/60*2*PI())</f>
+        <v>5.7533944856660174E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3351,8 +3351,8 @@
         <v>4</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="2"/>
-        <v>4.8378818291555958E-5</v>
+        <f>SQRT((E6^2)-E16^2)/(A6/60*2*PI())</f>
+        <v>5.0069111061347275E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3377,8 +3377,8 @@
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>4.4975861098734976E-5</v>
+        <f>SQRT((E7^2)-E16^2)/(A7/60*2*PI())</f>
+        <v>4.2721663729125949E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3403,8 +3403,8 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1343850149282793E-5</v>
+        <f>SQRT((E8^2)-E16^2)/(A8/60*2*PI())</f>
+        <v>3.7053307862673109E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3429,8 +3429,8 @@
         <v>7</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>4.7646122507748958E-5</v>
+        <f>SQRT((E9^2)-E16^2)/(A9/60*2*PI())</f>
+        <v>3.7059133107344273E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3455,8 +3455,8 @@
         <v>8</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="2"/>
-        <v>5.2837457167372388E-5</v>
+        <f>SQRT((E10^2)-E16^2)/(A10/60*2*PI())</f>
+        <v>3.6556274423638909E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3481,8 +3481,8 @@
         <v>9</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="2"/>
-        <v>5.5629015080702189E-5</v>
+        <f>SQRT((E11^2)-E16^2)/(A11/60*2*PI())</f>
+        <v>3.5319544891382289E-4</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3495,9 +3495,9 @@
       <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <f>AVERAGE(G4:G11)</f>
-        <v>5.062251699429944E-5</v>
+        <v>4.7827714750058839E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Results gen.xlsx
+++ b/trunk/Results gen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="11220" windowHeight="4890"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -138,12 +138,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +215,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -701,14 +713,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="109026304"/>
-        <c:axId val="109585920"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109323008"/>
+        <c:axId val="109324928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109026304"/>
+        <c:axId val="109323008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -727,18 +748,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109585920"/>
+        <c:crossAx val="109324928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109585920"/>
+        <c:axId val="109324928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -766,10 +791,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109026304"/>
+        <c:crossAx val="109323008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -777,9 +805,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -899,6 +929,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -933,6 +964,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1108,16 +1140,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C23"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -1305,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>200</v>
       </c>
@@ -1399,7 +1431,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>400</v>
       </c>
@@ -1493,7 +1525,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>600</v>
       </c>
@@ -1587,7 +1619,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>800</v>
       </c>
@@ -1681,7 +1713,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1000</v>
       </c>
@@ -1775,7 +1807,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1200</v>
       </c>
@@ -1869,7 +1901,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1400</v>
       </c>
@@ -1963,7 +1995,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1600</v>
       </c>
@@ -2057,7 +2089,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1800</v>
       </c>
@@ -2151,7 +2183,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2000</v>
       </c>
@@ -2245,7 +2277,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2200</v>
       </c>
@@ -2339,7 +2371,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2400</v>
       </c>
@@ -2433,7 +2465,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2600</v>
       </c>
@@ -2527,7 +2559,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2800</v>
       </c>
@@ -2621,7 +2653,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>3000</v>
       </c>
@@ -2715,7 +2747,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3200</v>
       </c>
@@ -2809,7 +2841,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>3400</v>
       </c>
@@ -2903,7 +2935,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>3600</v>
       </c>
@@ -2997,7 +3029,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>3800</v>
       </c>
@@ -3091,7 +3123,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>4000</v>
       </c>
@@ -3185,7 +3217,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AA24">
         <v>4000</v>
       </c>
@@ -3196,7 +3228,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AA25">
         <v>4200</v>
       </c>
@@ -3215,14 +3247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
@@ -3230,12 +3262,12 @@
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3255,7 +3287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3277,7 +3309,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -3303,7 +3335,7 @@
         <v>8.6308738068298764E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -3329,7 +3361,7 @@
         <v>5.7533944856660174E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -3355,7 +3387,7 @@
         <v>5.0069111061347275E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -3381,7 +3413,7 @@
         <v>4.2721663729125949E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2500</v>
       </c>
@@ -3407,7 +3439,7 @@
         <v>3.7053307862673109E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3000</v>
       </c>
@@ -3433,7 +3465,7 @@
         <v>3.7059133107344273E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3500</v>
       </c>
@@ -3459,7 +3491,7 @@
         <v>3.6556274423638909E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4000</v>
       </c>
@@ -3485,7 +3517,7 @@
         <v>3.5319544891382289E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>24</v>
       </c>
@@ -3507,16 +3539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3610,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -3655,7 +3687,7 @@
         <v>0.45821600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -3700,7 +3732,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -3745,7 +3777,7 @@
         <v>4.7046599999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -3790,7 +3822,7 @@
         <v>8.2276599999999984</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -3835,7 +3867,7 @@
         <v>12.809999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -3880,7 +3912,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -3925,7 +3957,7 @@
         <v>24.2104</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -3970,49 +4002,49 @@
         <v>30.6372</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>A4/B4</f>
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ref="B15:B21" si="7">A5/B5</f>
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="7"/>
         <v>8.4745762711864412</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="7"/>
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="7"/>
         <v>8.6505190311418687</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="7"/>
         <v>8.6206896551724146</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="7"/>
         <v>8.5995085995085994</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="7"/>
         <v>8.639308855291576</v>
@@ -4022,7 +4054,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>AVERAGE(B14:B21)</f>
         <v>8.6833519813795093</v>
@@ -4034,21 +4066,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36.61</v>
       </c>
@@ -4056,7 +4088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39</v>
       </c>
@@ -4064,7 +4096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>37.47</v>
       </c>
@@ -4072,7 +4104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>AVERAGE(A2:A4)</f>
         <v>37.693333333333335</v>
